--- a/population_table.xlsx
+++ b/population_table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="251">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -33,25 +33,7 @@
     <t xml:space="preserve">Population</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Souce: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.worldometers.info/world-population/population-by-country/</t>
-    </r>
+    <t xml:space="preserve">Souce: https://www.worldometers.info/world-population/population-by-country/</t>
   </si>
   <si>
     <t xml:space="preserve">Afghanistan</t>
@@ -890,13 +872,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -926,11 +912,11 @@
   </sheetPr>
   <dimension ref="A1:E236"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A198" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A201" activeCellId="1" sqref="B172 A201"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C73" activeCellId="0" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.99"/>
@@ -943,15 +929,15 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>38928346</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -959,194 +945,194 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>2877797</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>43851044</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>55191</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>77265</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>32866272</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>15003</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>97929</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>45195774</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>2963243</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>106766</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>25499884</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <v>9006398</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="3" t="n">
         <v>10139177</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="3" t="n">
         <v>393244</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>1701575</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="3" t="n">
         <v>164689383</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>287375</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="3" t="n">
         <v>9449323</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="3" t="n">
         <v>11589623</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="3" t="n">
         <v>397628</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="3" t="n">
         <v>12123200</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="3" t="n">
         <v>62278</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="3" t="n">
         <v>771608</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="3" t="n">
         <v>11673021</v>
       </c>
     </row>
@@ -1154,194 +1140,194 @@
       <c r="A27" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="3" t="n">
         <v>3280819</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="3" t="n">
         <v>2351627</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="3" t="n">
         <v>212559417</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="3" t="n">
         <v>30231</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="3" t="n">
         <v>437479</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="3" t="n">
         <v>6948445</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="3" t="n">
         <v>20903273</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="3" t="n">
         <v>11890784</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="3" t="n">
         <v>555987</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="3" t="n">
         <v>16718965</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="3" t="n">
         <v>26545863</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="3" t="n">
         <v>37742154</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="3" t="n">
         <v>26223</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="3" t="n">
         <v>65722</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="3" t="n">
         <v>4829767</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="3" t="n">
         <v>16425864</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="3" t="n">
         <v>173863</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="3" t="n">
         <v>19116201</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="3" t="n">
         <v>1439323776</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="3" t="n">
         <v>50882891</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="3" t="n">
         <v>869601</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="3" t="n">
         <v>5518087</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="3" t="n">
         <v>17564</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="3" t="n">
         <v>5094118</v>
       </c>
     </row>
@@ -1349,42 +1335,42 @@
       <c r="A51" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="3" t="n">
         <v>26378274</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="3" t="n">
         <v>4105267</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="3" t="n">
         <v>11326616</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="3" t="n">
         <v>164093</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="3" t="n">
         <v>1207359</v>
       </c>
     </row>
@@ -1392,42 +1378,42 @@
       <c r="A56" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="3" t="n">
         <v>10708981</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="C57" s="3" t="n">
         <v>5792202</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="3" t="n">
         <v>988000</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="3" t="n">
         <v>71986</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="2" t="n">
+      <c r="C60" s="3" t="n">
         <v>10847910</v>
       </c>
     </row>
@@ -1435,666 +1421,666 @@
       <c r="A61" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="2" t="n">
+      <c r="C61" s="3" t="n">
         <v>89561403</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="3" t="n">
         <v>17643054</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="3" t="n">
         <v>102334404</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="3" t="n">
         <v>6486205</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="3" t="n">
         <v>1402985</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="3" t="n">
         <v>3546421</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="3" t="n">
         <v>1326535</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="3" t="n">
         <v>1160164</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="2" t="n">
+      <c r="C69" s="3" t="n">
         <v>114963588</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="2" t="n">
+      <c r="C70" s="3" t="n">
         <v>48863</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="2" t="n">
+      <c r="C71" s="3" t="n">
         <v>3480</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="2" t="n">
+      <c r="C72" s="3" t="n">
         <v>896445</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="2" t="n">
+      <c r="C73" s="3" t="n">
         <v>5540720</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="2" t="n">
+      <c r="C74" s="3" t="n">
         <v>65273511</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="C75" s="3" t="n">
         <v>298682</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="2" t="n">
+      <c r="C76" s="3" t="n">
         <v>280908</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C77" s="3" t="n">
         <v>2225734</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C78" s="3" t="n">
         <v>2416668</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="2" t="n">
+      <c r="C79" s="3" t="n">
         <v>3989167</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="2" t="n">
+      <c r="C80" s="3" t="n">
         <v>83783942</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="2" t="n">
+      <c r="C81" s="3" t="n">
         <v>31072940</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C82" s="2" t="n">
+      <c r="C82" s="3" t="n">
         <v>33691</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="2" t="n">
+      <c r="C83" s="3" t="n">
         <v>10423054</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="2" t="n">
+      <c r="C84" s="3" t="n">
         <v>56770</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="2" t="n">
+      <c r="C85" s="3" t="n">
         <v>112523</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="2" t="n">
+      <c r="C86" s="3" t="n">
         <v>400124</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="2" t="n">
+      <c r="C87" s="3" t="n">
         <v>168775</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="2" t="n">
+      <c r="C88" s="3" t="n">
         <v>17915568</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="2" t="n">
+      <c r="C89" s="3" t="n">
         <v>13132795</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="2" t="n">
+      <c r="C90" s="3" t="n">
         <v>1968001</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="2" t="n">
+      <c r="C91" s="3" t="n">
         <v>786552</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="2" t="n">
+      <c r="C92" s="3" t="n">
         <v>11402528</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="2" t="n">
+      <c r="C93" s="3" t="n">
         <v>801</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="2" t="n">
+      <c r="C94" s="3" t="n">
         <v>9904607</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="2" t="n">
+      <c r="C95" s="3" t="n">
         <v>7496981</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="2" t="n">
+      <c r="C96" s="3" t="n">
         <v>9660351</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="2" t="n">
+      <c r="C97" s="3" t="n">
         <v>341243</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="2" t="n">
+      <c r="C98" s="3" t="n">
         <v>1380004385</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="2" t="n">
+      <c r="C99" s="3" t="n">
         <v>273523615</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C100" s="2" t="n">
+      <c r="C100" s="3" t="n">
         <v>83992949</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="2" t="n">
+      <c r="C101" s="3" t="n">
         <v>40222493</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C102" s="2" t="n">
+      <c r="C102" s="3" t="n">
         <v>4937786</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="2" t="n">
+      <c r="C103" s="3" t="n">
         <v>85033</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="2" t="n">
+      <c r="C104" s="3" t="n">
         <v>8655535</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C105" s="2" t="n">
+      <c r="C105" s="3" t="n">
         <v>60461826</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="2" t="n">
+      <c r="C106" s="3" t="n">
         <v>2961167</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="2" t="n">
+      <c r="C107" s="3" t="n">
         <v>126476461</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="2" t="n">
+      <c r="C108" s="3" t="n">
         <v>10203134</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="2" t="n">
+      <c r="C109" s="3" t="n">
         <v>18776707</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="2" t="n">
+      <c r="C110" s="3" t="n">
         <v>53771296</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C111" s="2" t="n">
+      <c r="C111" s="3" t="n">
         <v>119449</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C112" s="2" t="n">
+      <c r="C112" s="3" t="n">
         <v>4270571</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C113" s="2" t="n">
+      <c r="C113" s="3" t="n">
         <v>6524195</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C114" s="2" t="n">
+      <c r="C114" s="3" t="n">
         <v>7275560</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C115" s="2" t="n">
+      <c r="C115" s="3" t="n">
         <v>1886198</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C116" s="2" t="n">
+      <c r="C116" s="3" t="n">
         <v>6825445</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C117" s="2" t="n">
+      <c r="C117" s="3" t="n">
         <v>2142249</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C118" s="2" t="n">
+      <c r="C118" s="3" t="n">
         <v>5057681</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C119" s="2" t="n">
+      <c r="C119" s="3" t="n">
         <v>6871292</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C120" s="2" t="n">
+      <c r="C120" s="3" t="n">
         <v>38128</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C121" s="2" t="n">
+      <c r="C121" s="3" t="n">
         <v>2722289</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C122" s="2" t="n">
+      <c r="C122" s="3" t="n">
         <v>625978</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C123" s="2" t="n">
+      <c r="C123" s="3" t="n">
         <v>649335</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C124" s="2" t="n">
+      <c r="C124" s="3" t="n">
         <v>27691018</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C125" s="2" t="n">
+      <c r="C125" s="3" t="n">
         <v>19129952</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C126" s="2" t="n">
+      <c r="C126" s="3" t="n">
         <v>32365999</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C127" s="2" t="n">
+      <c r="C127" s="3" t="n">
         <v>540544</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C128" s="2" t="n">
+      <c r="C128" s="3" t="n">
         <v>20250833</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="2" t="n">
+      <c r="C129" s="3" t="n">
         <v>441543</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C130" s="2" t="n">
+      <c r="C130" s="3" t="n">
         <v>59190</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C131" s="2" t="n">
+      <c r="C131" s="3" t="n">
         <v>375265</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C132" s="2" t="n">
+      <c r="C132" s="3" t="n">
         <v>4649658</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C133" s="2" t="n">
+      <c r="C133" s="3" t="n">
         <v>1271768</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C134" s="2" t="n">
+      <c r="C134" s="3" t="n">
         <v>272815</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C135" s="2" t="n">
+      <c r="C135" s="3" t="n">
         <v>128932753</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C136" s="2" t="n">
+      <c r="C136" s="3" t="n">
         <v>115023</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C137" s="2" t="n">
+      <c r="C137" s="3" t="n">
         <v>4033963</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C138" s="2" t="n">
+      <c r="C138" s="3" t="n">
         <v>39242</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C139" s="2" t="n">
+      <c r="C139" s="3" t="n">
         <v>3278290</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C140" s="2" t="n">
+      <c r="C140" s="3" t="n">
         <v>628066</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C141" s="2" t="n">
+      <c r="C141" s="3" t="n">
         <v>4992</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C142" s="2" t="n">
+      <c r="C142" s="3" t="n">
         <v>36910560</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C143" s="2" t="n">
+      <c r="C143" s="3" t="n">
         <v>31255435</v>
       </c>
     </row>
@@ -2102,266 +2088,266 @@
       <c r="A144" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C144" s="2" t="n">
+      <c r="C144" s="3" t="n">
         <v>54409800</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C145" s="2" t="n">
+      <c r="C145" s="3" t="n">
         <v>2540905</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C146" s="2" t="n">
+      <c r="C146" s="3" t="n">
         <v>10824</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C147" s="2" t="n">
+      <c r="C147" s="3" t="n">
         <v>29136808</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C148" s="2" t="n">
+      <c r="C148" s="3" t="n">
         <v>17134872</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C149" s="2" t="n">
+      <c r="C149" s="3" t="n">
         <v>285498</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C150" s="2" t="n">
+      <c r="C150" s="3" t="n">
         <v>4822233</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C151" s="2" t="n">
+      <c r="C151" s="3" t="n">
         <v>6624554</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C152" s="2" t="n">
+      <c r="C152" s="3" t="n">
         <v>24206644</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C153" s="2" t="n">
+      <c r="C153" s="3" t="n">
         <v>206139589</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C154" s="2" t="n">
+      <c r="C154" s="3" t="n">
         <v>1626</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C155" s="2" t="n">
+      <c r="C155" s="3" t="n">
         <v>25778816</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C156" s="2" t="n">
+      <c r="C156" s="3" t="n">
         <v>2083374</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C157" s="2" t="n">
+      <c r="C157" s="3" t="n">
         <v>57559</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C158" s="2" t="n">
+      <c r="C158" s="3" t="n">
         <v>5421241</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C159" s="2" t="n">
+      <c r="C159" s="3" t="n">
         <v>5106626</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C160" s="2" t="n">
+      <c r="C160" s="3" t="n">
         <v>220892340</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C161" s="2" t="n">
+      <c r="C161" s="3" t="n">
         <v>18094</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C162" s="2" t="n">
+      <c r="C162" s="3" t="n">
         <v>4314767</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C163" s="2" t="n">
+      <c r="C163" s="3" t="n">
         <v>8947024</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C164" s="2" t="n">
+      <c r="C164" s="3" t="n">
         <v>7132538</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C165" s="2" t="n">
+      <c r="C165" s="3" t="n">
         <v>32971854</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C166" s="2" t="n">
+      <c r="C166" s="3" t="n">
         <v>109581078</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C167" s="2" t="n">
+      <c r="C167" s="3" t="n">
         <v>37846611</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C168" s="2" t="n">
+      <c r="C168" s="3" t="n">
         <v>10196709</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C169" s="2" t="n">
+      <c r="C169" s="3" t="n">
         <v>2860853</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C170" s="2" t="n">
+      <c r="C170" s="3" t="n">
         <v>2881053</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C171" s="2" t="n">
+      <c r="C171" s="3" t="n">
         <v>895312</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C172" s="2" t="n">
+      <c r="C172" s="3" t="n">
         <v>19237691</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C173" s="2" t="n">
+      <c r="C173" s="3" t="n">
         <v>145934462</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C174" s="2" t="n">
+      <c r="C174" s="3" t="n">
         <v>12952218</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C175" s="2" t="n">
+      <c r="C175" s="3" t="n">
         <v>9877</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C176" s="2" t="n">
+      <c r="C176" s="3" t="n">
         <v>6077</v>
       </c>
     </row>
@@ -2369,50 +2355,50 @@
       <c r="A177" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C177" s="2" t="n">
+      <c r="C177" s="3" t="n">
         <v>53199</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C178" s="2" t="n">
+      <c r="C178" s="3" t="n">
         <v>183627</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C179" s="2" t="n">
+      <c r="C179" s="3" t="n">
         <v>38666</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C180" s="2" t="n">
+      <c r="C180" s="3" t="n">
         <v>5794</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C181" s="2" t="n">
+      <c r="C181" s="3" t="n">
         <v>198414</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C182" s="2" t="n">
+      <c r="C182" s="3" t="n">
         <v>33931</v>
       </c>
     </row>
@@ -2420,138 +2406,138 @@
       <c r="A183" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C183" s="2" t="n">
+      <c r="C183" s="3" t="n">
         <v>219159</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C184" s="2" t="n">
+      <c r="C184" s="3" t="n">
         <v>34813871</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C185" s="2" t="n">
+      <c r="C185" s="3" t="n">
         <v>16743927</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C186" s="2" t="n">
+      <c r="C186" s="3" t="n">
         <v>8737371</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C187" s="2" t="n">
+      <c r="C187" s="3" t="n">
         <v>98347</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C188" s="2" t="n">
+      <c r="C188" s="3" t="n">
         <v>7976983</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C189" s="2" t="n">
+      <c r="C189" s="3" t="n">
         <v>5850342</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C190" s="2" t="n">
+      <c r="C190" s="3" t="n">
         <v>42876</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C191" s="2" t="n">
+      <c r="C191" s="3" t="n">
         <v>5459642</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C192" s="2" t="n">
+      <c r="C192" s="3" t="n">
         <v>2078938</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C193" s="2" t="n">
+      <c r="C193" s="3" t="n">
         <v>686884</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C194" s="2" t="n">
+      <c r="C194" s="3" t="n">
         <v>15893222</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C195" s="2" t="n">
+      <c r="C195" s="3" t="n">
         <v>59308690</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C196" s="2" t="n">
+      <c r="C196" s="3" t="n">
         <v>51269185</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C197" s="2" t="n">
+      <c r="C197" s="3" t="n">
         <v>11193725</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C198" s="2" t="n">
+      <c r="C198" s="3" t="n">
         <v>46754778</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C199" s="2" t="n">
+      <c r="C199" s="3" t="n">
         <v>21413249</v>
       </c>
     </row>
@@ -2559,210 +2545,210 @@
       <c r="A200" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C200" s="2" t="n">
+      <c r="C200" s="3" t="n">
         <v>110940</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C201" s="2" t="n">
+      <c r="C201" s="3" t="n">
         <v>5101414</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C202" s="2" t="n">
+      <c r="C202" s="3" t="n">
         <v>43849260</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C203" s="2" t="n">
+      <c r="C203" s="3" t="n">
         <v>586632</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C204" s="2" t="n">
+      <c r="C204" s="3" t="n">
         <v>10099265</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C205" s="2" t="n">
+      <c r="C205" s="3" t="n">
         <v>8654622</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C206" s="2" t="n">
+      <c r="C206" s="3" t="n">
         <v>17500658</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C207" s="2" t="n">
+      <c r="C207" s="3" t="n">
         <v>23816775</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C208" s="2" t="n">
+      <c r="C208" s="3" t="n">
         <v>9537645</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C209" s="2" t="n">
+      <c r="C209" s="3" t="n">
         <v>59734218</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C210" s="2" t="n">
+      <c r="C210" s="3" t="n">
         <v>69799978</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C211" s="2" t="n">
+      <c r="C211" s="3" t="n">
         <v>1318445</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C212" s="2" t="n">
+      <c r="C212" s="3" t="n">
         <v>8278724</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C213" s="2" t="n">
+      <c r="C213" s="3" t="n">
         <v>1357</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C214" s="2" t="n">
+      <c r="C214" s="3" t="n">
         <v>105695</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C215" s="2" t="n">
+      <c r="C215" s="3" t="n">
         <v>1399488</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C216" s="2" t="n">
+      <c r="C216" s="3" t="n">
         <v>11818619</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C217" s="2" t="n">
+      <c r="C217" s="3" t="n">
         <v>84339067</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C218" s="2" t="n">
+      <c r="C218" s="3" t="n">
         <v>6031200</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C219" s="2" t="n">
+      <c r="C219" s="3" t="n">
         <v>38717</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C220" s="2" t="n">
+      <c r="C220" s="3" t="n">
         <v>11792</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C221" s="2" t="n">
+      <c r="C221" s="3" t="n">
         <v>104425</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C222" s="2" t="n">
+      <c r="C222" s="3" t="n">
         <v>45741007</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C223" s="2" t="n">
+      <c r="C223" s="3" t="n">
         <v>43733762</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C224" s="2" t="n">
+      <c r="C224" s="3" t="n">
         <v>9890402</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C225" s="2" t="n">
+      <c r="C225" s="3" t="n">
         <v>67886011</v>
       </c>
     </row>
@@ -2770,97 +2756,97 @@
       <c r="A226" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C226" s="2" t="n">
+      <c r="C226" s="3" t="n">
         <v>331002651</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C227" s="2" t="n">
+      <c r="C227" s="3" t="n">
         <v>3473730</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C228" s="2" t="n">
+      <c r="C228" s="3" t="n">
         <v>33469203</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C229" s="2" t="n">
+      <c r="C229" s="3" t="n">
         <v>307145</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C230" s="2" t="n">
+      <c r="C230" s="3" t="n">
         <v>28435940</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C231" s="2" t="n">
+      <c r="C231" s="3" t="n">
         <v>97338579</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C232" s="2" t="n">
+      <c r="C232" s="3" t="n">
         <v>11239</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C233" s="2" t="n">
+      <c r="C233" s="3" t="n">
         <v>597339</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C234" s="2" t="n">
+      <c r="C234" s="3" t="n">
         <v>29825964</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C235" s="2" t="n">
+      <c r="C235" s="3" t="n">
         <v>18383955</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C236" s="2" t="n">
+      <c r="C236" s="3" t="n">
         <v>14862924</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:C236"/>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" display="https://www.worldometers.info/world-population/population-by-country/"/>
+    <hyperlink ref="E1" r:id="rId1" display="Souce: https://www.worldometers.info/world-population/population-by-country/"/>
     <hyperlink ref="B2" r:id="rId2" display="Afghanistan"/>
     <hyperlink ref="B3" r:id="rId3" display="Albania"/>
     <hyperlink ref="B4" r:id="rId4" display="Algeria"/>
@@ -3113,15 +3099,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A184"/>
+  <dimension ref="A1:A185"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A175" activeCellId="1" sqref="B172 A175"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,631 +3402,636 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4060,13 +4051,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B172" activeCellId="0" sqref="B172"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.08"/>
@@ -4665,1264 +4656,1274 @@
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="str">
         <f aca="false">Sheet2!A59</f>
-        <v>Fiji</v>
+        <v>Finland</v>
       </c>
       <c r="B60" s="0" t="n">
         <f aca="false">VLOOKUP(A60, Sheet1!B60:C294,2,0)</f>
-        <v>896445</v>
+        <v>5540720</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="str">
         <f aca="false">Sheet2!A60</f>
-        <v>France</v>
+        <v>Fiji</v>
       </c>
       <c r="B61" s="0" t="n">
-        <f aca="false">VLOOKUP(A61, Sheet1!B61:C295,2,0)</f>
-        <v>65273511</v>
+        <f aca="false">VLOOKUP(A61, Sheet1!B60:C294,2,0)</f>
+        <v>896445</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="str">
         <f aca="false">Sheet2!A61</f>
-        <v>Gabon</v>
+        <v>France</v>
       </c>
       <c r="B62" s="0" t="n">
-        <f aca="false">VLOOKUP(A62, Sheet1!B62:C296,2,0)</f>
-        <v>2225734</v>
+        <f aca="false">VLOOKUP(A62, Sheet1!B61:C295,2,0)</f>
+        <v>65273511</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="str">
         <f aca="false">Sheet2!A62</f>
-        <v>Gambia</v>
+        <v>Gabon</v>
       </c>
       <c r="B63" s="0" t="n">
-        <f aca="false">VLOOKUP(A63, Sheet1!B63:C297,2,0)</f>
-        <v>2416668</v>
+        <f aca="false">VLOOKUP(A63, Sheet1!B62:C296,2,0)</f>
+        <v>2225734</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="str">
         <f aca="false">Sheet2!A63</f>
-        <v>Georgia</v>
+        <v>Gambia</v>
       </c>
       <c r="B64" s="0" t="n">
-        <f aca="false">VLOOKUP(A64, Sheet1!B64:C298,2,0)</f>
-        <v>3989167</v>
+        <f aca="false">VLOOKUP(A64, Sheet1!B63:C297,2,0)</f>
+        <v>2416668</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="str">
         <f aca="false">Sheet2!A64</f>
-        <v>Germany</v>
+        <v>Georgia</v>
       </c>
       <c r="B65" s="0" t="n">
-        <f aca="false">VLOOKUP(A65, Sheet1!B65:C299,2,0)</f>
-        <v>83783942</v>
+        <f aca="false">VLOOKUP(A65, Sheet1!B64:C298,2,0)</f>
+        <v>3989167</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="str">
         <f aca="false">Sheet2!A65</f>
-        <v>Ghana</v>
+        <v>Germany</v>
       </c>
       <c r="B66" s="0" t="n">
-        <f aca="false">VLOOKUP(A66, Sheet1!B66:C300,2,0)</f>
-        <v>31072940</v>
+        <f aca="false">VLOOKUP(A66, Sheet1!B65:C299,2,0)</f>
+        <v>83783942</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="str">
         <f aca="false">Sheet2!A66</f>
-        <v>Greece</v>
+        <v>Ghana</v>
       </c>
       <c r="B67" s="0" t="n">
-        <f aca="false">VLOOKUP(A67, Sheet1!B67:C301,2,0)</f>
-        <v>10423054</v>
+        <f aca="false">VLOOKUP(A67, Sheet1!B66:C300,2,0)</f>
+        <v>31072940</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="str">
         <f aca="false">Sheet2!A67</f>
-        <v>Grenada</v>
+        <v>Greece</v>
       </c>
       <c r="B68" s="0" t="n">
-        <f aca="false">VLOOKUP(A68, Sheet1!B68:C302,2,0)</f>
-        <v>112523</v>
+        <f aca="false">VLOOKUP(A68, Sheet1!B67:C301,2,0)</f>
+        <v>10423054</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="str">
         <f aca="false">Sheet2!A68</f>
-        <v>Guatemala</v>
+        <v>Grenada</v>
       </c>
       <c r="B69" s="0" t="n">
-        <f aca="false">VLOOKUP(A69, Sheet1!B69:C303,2,0)</f>
-        <v>17915568</v>
+        <f aca="false">VLOOKUP(A69, Sheet1!B68:C302,2,0)</f>
+        <v>112523</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="str">
         <f aca="false">Sheet2!A69</f>
-        <v>Guinea</v>
+        <v>Guatemala</v>
       </c>
       <c r="B70" s="0" t="n">
-        <f aca="false">VLOOKUP(A70, Sheet1!B70:C304,2,0)</f>
-        <v>13132795</v>
+        <f aca="false">VLOOKUP(A70, Sheet1!B69:C303,2,0)</f>
+        <v>17915568</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="str">
         <f aca="false">Sheet2!A70</f>
-        <v>Guinea-Bissau</v>
+        <v>Guinea</v>
       </c>
       <c r="B71" s="0" t="n">
-        <f aca="false">VLOOKUP(A71, Sheet1!B71:C305,2,0)</f>
-        <v>1968001</v>
+        <f aca="false">VLOOKUP(A71, Sheet1!B70:C304,2,0)</f>
+        <v>13132795</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="str">
         <f aca="false">Sheet2!A71</f>
-        <v>Guyana</v>
+        <v>Guinea-Bissau</v>
       </c>
       <c r="B72" s="0" t="n">
-        <f aca="false">VLOOKUP(A72, Sheet1!B72:C306,2,0)</f>
-        <v>786552</v>
+        <f aca="false">VLOOKUP(A72, Sheet1!B71:C305,2,0)</f>
+        <v>1968001</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="str">
         <f aca="false">Sheet2!A72</f>
-        <v>Haiti</v>
+        <v>Guyana</v>
       </c>
       <c r="B73" s="0" t="n">
-        <f aca="false">VLOOKUP(A73, Sheet1!B73:C307,2,0)</f>
-        <v>11402528</v>
+        <f aca="false">VLOOKUP(A73, Sheet1!B72:C306,2,0)</f>
+        <v>786552</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="str">
         <f aca="false">Sheet2!A73</f>
-        <v>Holy See</v>
+        <v>Haiti</v>
       </c>
       <c r="B74" s="0" t="n">
-        <f aca="false">VLOOKUP(A74, Sheet1!B74:C308,2,0)</f>
-        <v>801</v>
+        <f aca="false">VLOOKUP(A74, Sheet1!B73:C307,2,0)</f>
+        <v>11402528</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="str">
         <f aca="false">Sheet2!A74</f>
-        <v>Honduras</v>
+        <v>Holy See</v>
       </c>
       <c r="B75" s="0" t="n">
-        <f aca="false">VLOOKUP(A75, Sheet1!B75:C309,2,0)</f>
-        <v>9904607</v>
+        <f aca="false">VLOOKUP(A75, Sheet1!B74:C308,2,0)</f>
+        <v>801</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="str">
         <f aca="false">Sheet2!A75</f>
-        <v>Hungary</v>
+        <v>Honduras</v>
       </c>
       <c r="B76" s="0" t="n">
-        <f aca="false">VLOOKUP(A76, Sheet1!B76:C310,2,0)</f>
-        <v>9660351</v>
+        <f aca="false">VLOOKUP(A76, Sheet1!B75:C309,2,0)</f>
+        <v>9904607</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="str">
         <f aca="false">Sheet2!A76</f>
-        <v>Iceland</v>
+        <v>Hungary</v>
       </c>
       <c r="B77" s="0" t="n">
-        <f aca="false">VLOOKUP(A77, Sheet1!B77:C311,2,0)</f>
-        <v>341243</v>
+        <f aca="false">VLOOKUP(A77, Sheet1!B76:C310,2,0)</f>
+        <v>9660351</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="str">
         <f aca="false">Sheet2!A77</f>
-        <v>India</v>
+        <v>Iceland</v>
       </c>
       <c r="B78" s="0" t="n">
-        <f aca="false">VLOOKUP(A78, Sheet1!B78:C312,2,0)</f>
-        <v>1380004385</v>
+        <f aca="false">VLOOKUP(A78, Sheet1!B77:C311,2,0)</f>
+        <v>341243</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="str">
         <f aca="false">Sheet2!A78</f>
-        <v>Indonesia</v>
+        <v>India</v>
       </c>
       <c r="B79" s="0" t="n">
-        <f aca="false">VLOOKUP(A79, Sheet1!B79:C313,2,0)</f>
-        <v>273523615</v>
+        <f aca="false">VLOOKUP(A79, Sheet1!B78:C312,2,0)</f>
+        <v>1380004385</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="str">
         <f aca="false">Sheet2!A79</f>
-        <v>Iran</v>
+        <v>Indonesia</v>
       </c>
       <c r="B80" s="0" t="n">
-        <f aca="false">VLOOKUP(A80, Sheet1!B80:C314,2,0)</f>
-        <v>83992949</v>
+        <f aca="false">VLOOKUP(A80, Sheet1!B79:C313,2,0)</f>
+        <v>273523615</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="str">
         <f aca="false">Sheet2!A80</f>
-        <v>Iraq</v>
+        <v>Iran</v>
       </c>
       <c r="B81" s="0" t="n">
-        <f aca="false">VLOOKUP(A81, Sheet1!B81:C315,2,0)</f>
-        <v>40222493</v>
+        <f aca="false">VLOOKUP(A81, Sheet1!B80:C314,2,0)</f>
+        <v>83992949</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="str">
         <f aca="false">Sheet2!A81</f>
-        <v>Ireland</v>
+        <v>Iraq</v>
       </c>
       <c r="B82" s="0" t="n">
-        <f aca="false">VLOOKUP(A82, Sheet1!B82:C316,2,0)</f>
-        <v>4937786</v>
+        <f aca="false">VLOOKUP(A82, Sheet1!B81:C315,2,0)</f>
+        <v>40222493</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="str">
         <f aca="false">Sheet2!A82</f>
-        <v>Israel</v>
+        <v>Ireland</v>
       </c>
       <c r="B83" s="0" t="n">
-        <f aca="false">VLOOKUP(A83, Sheet1!B83:C317,2,0)</f>
-        <v>8655535</v>
+        <f aca="false">VLOOKUP(A83, Sheet1!B82:C316,2,0)</f>
+        <v>4937786</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="str">
         <f aca="false">Sheet2!A83</f>
-        <v>Italy</v>
+        <v>Israel</v>
       </c>
       <c r="B84" s="0" t="n">
-        <f aca="false">VLOOKUP(A84, Sheet1!B84:C318,2,0)</f>
-        <v>60461826</v>
+        <f aca="false">VLOOKUP(A84, Sheet1!B83:C317,2,0)</f>
+        <v>8655535</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="str">
         <f aca="false">Sheet2!A84</f>
-        <v>Jamaica</v>
+        <v>Italy</v>
       </c>
       <c r="B85" s="0" t="n">
-        <f aca="false">VLOOKUP(A85, Sheet1!B85:C319,2,0)</f>
-        <v>2961167</v>
+        <f aca="false">VLOOKUP(A85, Sheet1!B84:C318,2,0)</f>
+        <v>60461826</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="str">
         <f aca="false">Sheet2!A85</f>
-        <v>Japan</v>
+        <v>Jamaica</v>
       </c>
       <c r="B86" s="0" t="n">
-        <f aca="false">VLOOKUP(A86, Sheet1!B86:C320,2,0)</f>
-        <v>126476461</v>
+        <f aca="false">VLOOKUP(A86, Sheet1!B85:C319,2,0)</f>
+        <v>2961167</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="str">
         <f aca="false">Sheet2!A86</f>
-        <v>Jordan</v>
+        <v>Japan</v>
       </c>
       <c r="B87" s="0" t="n">
-        <f aca="false">VLOOKUP(A87, Sheet1!B87:C321,2,0)</f>
-        <v>10203134</v>
+        <f aca="false">VLOOKUP(A87, Sheet1!B86:C320,2,0)</f>
+        <v>126476461</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="str">
         <f aca="false">Sheet2!A87</f>
-        <v>Kazakhstan</v>
+        <v>Jordan</v>
       </c>
       <c r="B88" s="0" t="n">
-        <f aca="false">VLOOKUP(A88, Sheet1!B88:C322,2,0)</f>
-        <v>18776707</v>
+        <f aca="false">VLOOKUP(A88, Sheet1!B87:C321,2,0)</f>
+        <v>10203134</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="str">
         <f aca="false">Sheet2!A88</f>
-        <v>Kenya</v>
+        <v>Kazakhstan</v>
       </c>
       <c r="B89" s="0" t="n">
-        <f aca="false">VLOOKUP(A89, Sheet1!B89:C323,2,0)</f>
-        <v>53771296</v>
+        <f aca="false">VLOOKUP(A89, Sheet1!B88:C322,2,0)</f>
+        <v>18776707</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="str">
         <f aca="false">Sheet2!A89</f>
-        <v>South Korea</v>
+        <v>Kenya</v>
       </c>
       <c r="B90" s="0" t="n">
-        <f aca="false">VLOOKUP(A90, Sheet1!B90:C324,2,0)</f>
-        <v>51269185</v>
+        <f aca="false">VLOOKUP(A90, Sheet1!B89:C323,2,0)</f>
+        <v>53771296</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="str">
         <f aca="false">Sheet2!A90</f>
-        <v>Kosovo</v>
+        <v>South Korea</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>1845000</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>250</v>
+        <f aca="false">VLOOKUP(A91, Sheet1!B90:C324,2,0)</f>
+        <v>51269185</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="str">
         <f aca="false">Sheet2!A91</f>
-        <v>Kuwait</v>
+        <v>Kosovo</v>
       </c>
       <c r="B92" s="0" t="n">
-        <f aca="false">VLOOKUP(A92, Sheet1!B92:C326,2,0)</f>
-        <v>4270571</v>
+        <v>1845000</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="str">
         <f aca="false">Sheet2!A92</f>
-        <v>Kyrgyzstan</v>
+        <v>Kuwait</v>
       </c>
       <c r="B93" s="0" t="n">
-        <f aca="false">VLOOKUP(A93, Sheet1!B93:C327,2,0)</f>
-        <v>6524195</v>
+        <f aca="false">VLOOKUP(A93, Sheet1!B92:C326,2,0)</f>
+        <v>4270571</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="str">
         <f aca="false">Sheet2!A93</f>
-        <v>Laos</v>
+        <v>Kyrgyzstan</v>
       </c>
       <c r="B94" s="0" t="n">
-        <f aca="false">VLOOKUP(A94, Sheet1!B94:C328,2,0)</f>
-        <v>7275560</v>
+        <f aca="false">VLOOKUP(A94, Sheet1!B93:C327,2,0)</f>
+        <v>6524195</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="str">
         <f aca="false">Sheet2!A94</f>
-        <v>Latvia</v>
+        <v>Laos</v>
       </c>
       <c r="B95" s="0" t="n">
-        <f aca="false">VLOOKUP(A95, Sheet1!B95:C329,2,0)</f>
-        <v>1886198</v>
+        <f aca="false">VLOOKUP(A95, Sheet1!B94:C328,2,0)</f>
+        <v>7275560</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="str">
         <f aca="false">Sheet2!A95</f>
-        <v>Lebanon</v>
+        <v>Latvia</v>
       </c>
       <c r="B96" s="0" t="n">
-        <f aca="false">VLOOKUP(A96, Sheet1!B96:C330,2,0)</f>
-        <v>6825445</v>
+        <f aca="false">VLOOKUP(A96, Sheet1!B95:C329,2,0)</f>
+        <v>1886198</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="str">
         <f aca="false">Sheet2!A96</f>
-        <v>Lesotho</v>
+        <v>Lebanon</v>
       </c>
       <c r="B97" s="0" t="n">
-        <f aca="false">VLOOKUP(A97, Sheet1!B97:C331,2,0)</f>
-        <v>2142249</v>
+        <f aca="false">VLOOKUP(A97, Sheet1!B96:C330,2,0)</f>
+        <v>6825445</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="str">
         <f aca="false">Sheet2!A97</f>
-        <v>Liberia</v>
+        <v>Lesotho</v>
       </c>
       <c r="B98" s="0" t="n">
-        <f aca="false">VLOOKUP(A98, Sheet1!B98:C332,2,0)</f>
-        <v>5057681</v>
+        <f aca="false">VLOOKUP(A98, Sheet1!B97:C331,2,0)</f>
+        <v>2142249</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="str">
         <f aca="false">Sheet2!A98</f>
-        <v>Libya</v>
+        <v>Liberia</v>
       </c>
       <c r="B99" s="0" t="n">
-        <f aca="false">VLOOKUP(A99, Sheet1!B99:C333,2,0)</f>
-        <v>6871292</v>
+        <f aca="false">VLOOKUP(A99, Sheet1!B98:C332,2,0)</f>
+        <v>5057681</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="str">
         <f aca="false">Sheet2!A99</f>
-        <v>Liechtenstein</v>
+        <v>Libya</v>
       </c>
       <c r="B100" s="0" t="n">
-        <f aca="false">VLOOKUP(A100, Sheet1!B100:C334,2,0)</f>
-        <v>38128</v>
+        <f aca="false">VLOOKUP(A100, Sheet1!B99:C333,2,0)</f>
+        <v>6871292</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="str">
         <f aca="false">Sheet2!A100</f>
-        <v>Lithuania</v>
+        <v>Liechtenstein</v>
       </c>
       <c r="B101" s="0" t="n">
-        <f aca="false">VLOOKUP(A101, Sheet1!B101:C335,2,0)</f>
-        <v>2722289</v>
+        <f aca="false">VLOOKUP(A101, Sheet1!B100:C334,2,0)</f>
+        <v>38128</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="str">
         <f aca="false">Sheet2!A101</f>
-        <v>Luxembourg</v>
+        <v>Lithuania</v>
       </c>
       <c r="B102" s="0" t="n">
-        <f aca="false">VLOOKUP(A102, Sheet1!B102:C336,2,0)</f>
-        <v>625978</v>
+        <f aca="false">VLOOKUP(A102, Sheet1!B101:C335,2,0)</f>
+        <v>2722289</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="str">
         <f aca="false">Sheet2!A102</f>
-        <v>Madagascar</v>
+        <v>Luxembourg</v>
       </c>
       <c r="B103" s="0" t="n">
-        <f aca="false">VLOOKUP(A103, Sheet1!B103:C337,2,0)</f>
-        <v>27691018</v>
+        <f aca="false">VLOOKUP(A103, Sheet1!B102:C336,2,0)</f>
+        <v>625978</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="str">
         <f aca="false">Sheet2!A103</f>
-        <v>Malawi</v>
+        <v>Madagascar</v>
       </c>
       <c r="B104" s="0" t="n">
-        <f aca="false">VLOOKUP(A104, Sheet1!B104:C338,2,0)</f>
-        <v>19129952</v>
+        <f aca="false">VLOOKUP(A104, Sheet1!B103:C337,2,0)</f>
+        <v>27691018</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="str">
         <f aca="false">Sheet2!A104</f>
-        <v>Malaysia</v>
+        <v>Malawi</v>
       </c>
       <c r="B105" s="0" t="n">
-        <f aca="false">VLOOKUP(A105, Sheet1!B105:C339,2,0)</f>
-        <v>32365999</v>
+        <f aca="false">VLOOKUP(A105, Sheet1!B104:C338,2,0)</f>
+        <v>19129952</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="str">
         <f aca="false">Sheet2!A105</f>
-        <v>Maldives</v>
+        <v>Malaysia</v>
       </c>
       <c r="B106" s="0" t="n">
-        <f aca="false">VLOOKUP(A106, Sheet1!B106:C340,2,0)</f>
-        <v>540544</v>
+        <f aca="false">VLOOKUP(A106, Sheet1!B105:C339,2,0)</f>
+        <v>32365999</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="str">
         <f aca="false">Sheet2!A106</f>
-        <v>Mali</v>
+        <v>Maldives</v>
       </c>
       <c r="B107" s="0" t="n">
-        <f aca="false">VLOOKUP(A107, Sheet1!B107:C341,2,0)</f>
-        <v>20250833</v>
+        <f aca="false">VLOOKUP(A107, Sheet1!B106:C340,2,0)</f>
+        <v>540544</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="str">
         <f aca="false">Sheet2!A107</f>
-        <v>Malta</v>
+        <v>Mali</v>
       </c>
       <c r="B108" s="0" t="n">
-        <f aca="false">VLOOKUP(A108, Sheet1!B108:C342,2,0)</f>
-        <v>441543</v>
+        <f aca="false">VLOOKUP(A108, Sheet1!B107:C341,2,0)</f>
+        <v>20250833</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="str">
         <f aca="false">Sheet2!A108</f>
-        <v>Mauritania</v>
+        <v>Malta</v>
       </c>
       <c r="B109" s="0" t="n">
-        <f aca="false">VLOOKUP(A109, Sheet1!B109:C343,2,0)</f>
-        <v>4649658</v>
+        <f aca="false">VLOOKUP(A109, Sheet1!B108:C342,2,0)</f>
+        <v>441543</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="str">
         <f aca="false">Sheet2!A109</f>
-        <v>Mauritius</v>
+        <v>Mauritania</v>
       </c>
       <c r="B110" s="0" t="n">
-        <f aca="false">VLOOKUP(A110, Sheet1!B110:C344,2,0)</f>
-        <v>1271768</v>
+        <f aca="false">VLOOKUP(A110, Sheet1!B109:C343,2,0)</f>
+        <v>4649658</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="str">
         <f aca="false">Sheet2!A110</f>
-        <v>Mexico</v>
+        <v>Mauritius</v>
       </c>
       <c r="B111" s="0" t="n">
-        <f aca="false">VLOOKUP(A111, Sheet1!B111:C345,2,0)</f>
-        <v>128932753</v>
+        <f aca="false">VLOOKUP(A111, Sheet1!B110:C344,2,0)</f>
+        <v>1271768</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="str">
         <f aca="false">Sheet2!A111</f>
-        <v>Moldova</v>
+        <v>Mexico</v>
       </c>
       <c r="B112" s="0" t="n">
-        <f aca="false">VLOOKUP(A112, Sheet1!B112:C346,2,0)</f>
-        <v>4033963</v>
+        <f aca="false">VLOOKUP(A112, Sheet1!B111:C345,2,0)</f>
+        <v>128932753</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="str">
         <f aca="false">Sheet2!A112</f>
-        <v>Monaco</v>
+        <v>Moldova</v>
       </c>
       <c r="B113" s="0" t="n">
-        <f aca="false">VLOOKUP(A113, Sheet1!B113:C347,2,0)</f>
-        <v>39242</v>
+        <f aca="false">VLOOKUP(A113, Sheet1!B112:C346,2,0)</f>
+        <v>4033963</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="str">
         <f aca="false">Sheet2!A113</f>
-        <v>Mongolia</v>
+        <v>Monaco</v>
       </c>
       <c r="B114" s="0" t="n">
-        <f aca="false">VLOOKUP(A114, Sheet1!B114:C348,2,0)</f>
-        <v>3278290</v>
+        <f aca="false">VLOOKUP(A114, Sheet1!B113:C347,2,0)</f>
+        <v>39242</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="str">
         <f aca="false">Sheet2!A114</f>
-        <v>Montenegro</v>
+        <v>Mongolia</v>
       </c>
       <c r="B115" s="0" t="n">
-        <f aca="false">VLOOKUP(A115, Sheet1!B115:C349,2,0)</f>
-        <v>628066</v>
+        <f aca="false">VLOOKUP(A115, Sheet1!B114:C348,2,0)</f>
+        <v>3278290</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="str">
         <f aca="false">Sheet2!A115</f>
-        <v>Morocco</v>
+        <v>Montenegro</v>
       </c>
       <c r="B116" s="0" t="n">
-        <f aca="false">VLOOKUP(A116, Sheet1!B116:C350,2,0)</f>
-        <v>36910560</v>
+        <f aca="false">VLOOKUP(A116, Sheet1!B115:C349,2,0)</f>
+        <v>628066</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="str">
         <f aca="false">Sheet2!A116</f>
-        <v>Mozambique</v>
+        <v>Morocco</v>
       </c>
       <c r="B117" s="0" t="n">
-        <f aca="false">VLOOKUP(A117, Sheet1!B117:C351,2,0)</f>
-        <v>31255435</v>
+        <f aca="false">VLOOKUP(A117, Sheet1!B116:C350,2,0)</f>
+        <v>36910560</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="str">
         <f aca="false">Sheet2!A117</f>
-        <v>Namibia</v>
+        <v>Mozambique</v>
       </c>
       <c r="B118" s="0" t="n">
-        <f aca="false">VLOOKUP(A118, Sheet1!B118:C352,2,0)</f>
-        <v>2540905</v>
+        <f aca="false">VLOOKUP(A118, Sheet1!B117:C351,2,0)</f>
+        <v>31255435</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="str">
         <f aca="false">Sheet2!A118</f>
-        <v>Nepal</v>
+        <v>Namibia</v>
       </c>
       <c r="B119" s="0" t="n">
-        <f aca="false">VLOOKUP(A119, Sheet1!B119:C353,2,0)</f>
-        <v>29136808</v>
+        <f aca="false">VLOOKUP(A119, Sheet1!B118:C352,2,0)</f>
+        <v>2540905</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="str">
         <f aca="false">Sheet2!A119</f>
-        <v>Netherlands</v>
+        <v>Nepal</v>
       </c>
       <c r="B120" s="0" t="n">
-        <f aca="false">VLOOKUP(A120, Sheet1!B120:C354,2,0)</f>
-        <v>17134872</v>
+        <f aca="false">VLOOKUP(A120, Sheet1!B119:C353,2,0)</f>
+        <v>29136808</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="str">
         <f aca="false">Sheet2!A120</f>
-        <v>New Zealand</v>
+        <v>Netherlands</v>
       </c>
       <c r="B121" s="0" t="n">
-        <f aca="false">VLOOKUP(A121, Sheet1!B121:C355,2,0)</f>
-        <v>4822233</v>
+        <f aca="false">VLOOKUP(A121, Sheet1!B120:C354,2,0)</f>
+        <v>17134872</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="str">
         <f aca="false">Sheet2!A121</f>
-        <v>Nicaragua</v>
+        <v>New Zealand</v>
       </c>
       <c r="B122" s="0" t="n">
-        <f aca="false">VLOOKUP(A122, Sheet1!B122:C356,2,0)</f>
-        <v>6624554</v>
+        <f aca="false">VLOOKUP(A122, Sheet1!B121:C355,2,0)</f>
+        <v>4822233</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="str">
         <f aca="false">Sheet2!A122</f>
-        <v>Niger</v>
+        <v>Nicaragua</v>
       </c>
       <c r="B123" s="0" t="n">
-        <f aca="false">VLOOKUP(A123, Sheet1!B123:C357,2,0)</f>
-        <v>24206644</v>
+        <f aca="false">VLOOKUP(A123, Sheet1!B122:C356,2,0)</f>
+        <v>6624554</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="str">
         <f aca="false">Sheet2!A123</f>
-        <v>Nigeria</v>
+        <v>Niger</v>
       </c>
       <c r="B124" s="0" t="n">
-        <f aca="false">VLOOKUP(A124, Sheet1!B124:C358,2,0)</f>
-        <v>206139589</v>
+        <f aca="false">VLOOKUP(A124, Sheet1!B123:C357,2,0)</f>
+        <v>24206644</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="str">
         <f aca="false">Sheet2!A124</f>
-        <v>North Macedonia</v>
+        <v>Nigeria</v>
       </c>
       <c r="B125" s="0" t="n">
-        <f aca="false">VLOOKUP(A125, Sheet1!B125:C359,2,0)</f>
-        <v>2083374</v>
+        <f aca="false">VLOOKUP(A125, Sheet1!B124:C358,2,0)</f>
+        <v>206139589</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="str">
         <f aca="false">Sheet2!A125</f>
-        <v>Norway</v>
+        <v>North Macedonia</v>
       </c>
       <c r="B126" s="0" t="n">
-        <f aca="false">VLOOKUP(A126, Sheet1!B126:C360,2,0)</f>
-        <v>5421241</v>
+        <f aca="false">VLOOKUP(A126, Sheet1!B125:C359,2,0)</f>
+        <v>2083374</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="str">
         <f aca="false">Sheet2!A126</f>
-        <v>Oman</v>
+        <v>Norway</v>
       </c>
       <c r="B127" s="0" t="n">
-        <f aca="false">VLOOKUP(A127, Sheet1!B127:C361,2,0)</f>
-        <v>5106626</v>
+        <f aca="false">VLOOKUP(A127, Sheet1!B126:C360,2,0)</f>
+        <v>5421241</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="str">
         <f aca="false">Sheet2!A127</f>
-        <v>Pakistan</v>
+        <v>Oman</v>
       </c>
       <c r="B128" s="0" t="n">
-        <f aca="false">VLOOKUP(A128, Sheet1!B128:C362,2,0)</f>
-        <v>220892340</v>
+        <f aca="false">VLOOKUP(A128, Sheet1!B127:C361,2,0)</f>
+        <v>5106626</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="str">
         <f aca="false">Sheet2!A128</f>
-        <v>Panama</v>
+        <v>Pakistan</v>
       </c>
       <c r="B129" s="0" t="n">
-        <f aca="false">VLOOKUP(A129, Sheet1!B129:C363,2,0)</f>
-        <v>4314767</v>
+        <f aca="false">VLOOKUP(A129, Sheet1!B128:C362,2,0)</f>
+        <v>220892340</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="str">
         <f aca="false">Sheet2!A129</f>
-        <v>Papua New Guinea</v>
+        <v>Panama</v>
       </c>
       <c r="B130" s="0" t="n">
-        <f aca="false">VLOOKUP(A130, Sheet1!B130:C364,2,0)</f>
-        <v>8947024</v>
+        <f aca="false">VLOOKUP(A130, Sheet1!B129:C363,2,0)</f>
+        <v>4314767</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="str">
         <f aca="false">Sheet2!A130</f>
-        <v>Paraguay</v>
+        <v>Papua New Guinea</v>
       </c>
       <c r="B131" s="0" t="n">
-        <f aca="false">VLOOKUP(A131, Sheet1!B131:C365,2,0)</f>
-        <v>7132538</v>
+        <f aca="false">VLOOKUP(A131, Sheet1!B130:C364,2,0)</f>
+        <v>8947024</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="str">
         <f aca="false">Sheet2!A131</f>
-        <v>Peru</v>
+        <v>Paraguay</v>
       </c>
       <c r="B132" s="0" t="n">
-        <f aca="false">VLOOKUP(A132, Sheet1!B132:C366,2,0)</f>
-        <v>32971854</v>
+        <f aca="false">VLOOKUP(A132, Sheet1!B131:C365,2,0)</f>
+        <v>7132538</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="str">
         <f aca="false">Sheet2!A132</f>
-        <v>Philippines</v>
+        <v>Peru</v>
       </c>
       <c r="B133" s="0" t="n">
-        <f aca="false">VLOOKUP(A133, Sheet1!B133:C367,2,0)</f>
-        <v>109581078</v>
+        <f aca="false">VLOOKUP(A133, Sheet1!B132:C366,2,0)</f>
+        <v>32971854</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="str">
         <f aca="false">Sheet2!A133</f>
-        <v>Poland</v>
+        <v>Philippines</v>
       </c>
       <c r="B134" s="0" t="n">
-        <f aca="false">VLOOKUP(A134, Sheet1!B134:C368,2,0)</f>
-        <v>37846611</v>
+        <f aca="false">VLOOKUP(A134, Sheet1!B133:C367,2,0)</f>
+        <v>109581078</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="str">
         <f aca="false">Sheet2!A134</f>
-        <v>Portugal</v>
+        <v>Poland</v>
       </c>
       <c r="B135" s="0" t="n">
-        <f aca="false">VLOOKUP(A135, Sheet1!B135:C369,2,0)</f>
-        <v>10196709</v>
+        <f aca="false">VLOOKUP(A135, Sheet1!B134:C368,2,0)</f>
+        <v>37846611</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="str">
         <f aca="false">Sheet2!A135</f>
-        <v>Qatar</v>
+        <v>Portugal</v>
       </c>
       <c r="B136" s="0" t="n">
-        <f aca="false">VLOOKUP(A136, Sheet1!B136:C370,2,0)</f>
-        <v>2881053</v>
+        <f aca="false">VLOOKUP(A136, Sheet1!B135:C369,2,0)</f>
+        <v>10196709</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="str">
         <f aca="false">Sheet2!A136</f>
-        <v>Romania</v>
+        <v>Qatar</v>
       </c>
       <c r="B137" s="0" t="n">
-        <f aca="false">VLOOKUP(A137, Sheet1!B137:C371,2,0)</f>
-        <v>19237691</v>
+        <f aca="false">VLOOKUP(A137, Sheet1!B136:C370,2,0)</f>
+        <v>2881053</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="str">
         <f aca="false">Sheet2!A137</f>
-        <v>Russia</v>
+        <v>Romania</v>
       </c>
       <c r="B138" s="0" t="n">
-        <f aca="false">VLOOKUP(A138, Sheet1!B138:C372,2,0)</f>
-        <v>145934462</v>
+        <f aca="false">VLOOKUP(A138, Sheet1!B137:C371,2,0)</f>
+        <v>19237691</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="str">
         <f aca="false">Sheet2!A138</f>
-        <v>Rwanda</v>
+        <v>Russia</v>
       </c>
       <c r="B139" s="0" t="n">
-        <f aca="false">VLOOKUP(A139, Sheet1!B139:C373,2,0)</f>
-        <v>12952218</v>
+        <f aca="false">VLOOKUP(A139, Sheet1!B138:C372,2,0)</f>
+        <v>145934462</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="str">
         <f aca="false">Sheet2!A139</f>
-        <v>Saint Kitts and Nevis</v>
+        <v>Rwanda</v>
       </c>
       <c r="B140" s="0" t="n">
-        <f aca="false">VLOOKUP(A140, Sheet1!A140:C374,3,0)</f>
-        <v>53199</v>
+        <f aca="false">VLOOKUP(A140, Sheet1!B139:C373,2,0)</f>
+        <v>12952218</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="str">
         <f aca="false">Sheet2!A140</f>
-        <v>Saint Lucia</v>
+        <v>Saint Kitts and Nevis</v>
       </c>
       <c r="B141" s="0" t="n">
-        <f aca="false">VLOOKUP(A141, Sheet1!B141:C375,2,0)</f>
-        <v>183627</v>
+        <f aca="false">VLOOKUP(A141, Sheet1!A140:C374,3,0)</f>
+        <v>53199</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="str">
         <f aca="false">Sheet2!A141</f>
-        <v>Saint Vincent and the Grenadines</v>
+        <v>Saint Lucia</v>
       </c>
       <c r="B142" s="0" t="n">
-        <f aca="false">VLOOKUP(A142, Sheet1!A142:C376,3,0)</f>
-        <v>110940</v>
+        <f aca="false">VLOOKUP(A142, Sheet1!B141:C375,2,0)</f>
+        <v>183627</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="str">
         <f aca="false">Sheet2!A142</f>
-        <v>San Marino</v>
+        <v>Saint Vincent and the Grenadines</v>
       </c>
       <c r="B143" s="0" t="n">
-        <f aca="false">VLOOKUP(A143, Sheet1!B143:C377,2,0)</f>
-        <v>33931</v>
+        <f aca="false">VLOOKUP(A143, Sheet1!A142:C376,3,0)</f>
+        <v>110940</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="str">
         <f aca="false">Sheet2!A143</f>
-        <v>Sao Tome and Principe</v>
+        <v>San Marino</v>
       </c>
       <c r="B144" s="0" t="n">
-        <f aca="false">VLOOKUP(A144, Sheet1!A144:C378,3,0)</f>
-        <v>219159</v>
+        <f aca="false">VLOOKUP(A144, Sheet1!B143:C377,2,0)</f>
+        <v>33931</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="str">
         <f aca="false">Sheet2!A144</f>
-        <v>Saudi Arabia</v>
+        <v>Sao Tome and Principe</v>
       </c>
       <c r="B145" s="0" t="n">
-        <f aca="false">VLOOKUP(A145, Sheet1!B145:C379,2,0)</f>
-        <v>34813871</v>
+        <f aca="false">VLOOKUP(A145, Sheet1!A144:C378,3,0)</f>
+        <v>219159</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="str">
         <f aca="false">Sheet2!A145</f>
-        <v>Senegal</v>
+        <v>Saudi Arabia</v>
       </c>
       <c r="B146" s="0" t="n">
-        <f aca="false">VLOOKUP(A146, Sheet1!B146:C380,2,0)</f>
-        <v>16743927</v>
+        <f aca="false">VLOOKUP(A146, Sheet1!B145:C379,2,0)</f>
+        <v>34813871</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="str">
         <f aca="false">Sheet2!A146</f>
-        <v>Serbia</v>
+        <v>Senegal</v>
       </c>
       <c r="B147" s="0" t="n">
-        <f aca="false">VLOOKUP(A147, Sheet1!B147:C381,2,0)</f>
-        <v>8737371</v>
+        <f aca="false">VLOOKUP(A147, Sheet1!B146:C380,2,0)</f>
+        <v>16743927</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="str">
         <f aca="false">Sheet2!A147</f>
-        <v>Seychelles</v>
+        <v>Serbia</v>
       </c>
       <c r="B148" s="0" t="n">
-        <f aca="false">VLOOKUP(A148, Sheet1!B148:C382,2,0)</f>
-        <v>98347</v>
+        <f aca="false">VLOOKUP(A148, Sheet1!B147:C381,2,0)</f>
+        <v>8737371</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="str">
         <f aca="false">Sheet2!A148</f>
-        <v>Sierra Leone</v>
+        <v>Seychelles</v>
       </c>
       <c r="B149" s="0" t="n">
-        <f aca="false">VLOOKUP(A149, Sheet1!B149:C383,2,0)</f>
-        <v>7976983</v>
+        <f aca="false">VLOOKUP(A149, Sheet1!B148:C382,2,0)</f>
+        <v>98347</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="str">
         <f aca="false">Sheet2!A149</f>
-        <v>Singapore</v>
+        <v>Sierra Leone</v>
       </c>
       <c r="B150" s="0" t="n">
-        <f aca="false">VLOOKUP(A150, Sheet1!B150:C384,2,0)</f>
-        <v>5850342</v>
+        <f aca="false">VLOOKUP(A150, Sheet1!B149:C383,2,0)</f>
+        <v>7976983</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="str">
         <f aca="false">Sheet2!A150</f>
-        <v>Slovakia</v>
+        <v>Singapore</v>
       </c>
       <c r="B151" s="0" t="n">
-        <f aca="false">VLOOKUP(A151, Sheet1!B151:C385,2,0)</f>
-        <v>5459642</v>
+        <f aca="false">VLOOKUP(A151, Sheet1!B150:C384,2,0)</f>
+        <v>5850342</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="str">
         <f aca="false">Sheet2!A151</f>
-        <v>Slovenia</v>
+        <v>Slovakia</v>
       </c>
       <c r="B152" s="0" t="n">
-        <f aca="false">VLOOKUP(A152, Sheet1!B152:C386,2,0)</f>
-        <v>2078938</v>
+        <f aca="false">VLOOKUP(A152, Sheet1!B151:C385,2,0)</f>
+        <v>5459642</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="str">
         <f aca="false">Sheet2!A152</f>
-        <v>Somalia</v>
+        <v>Slovenia</v>
       </c>
       <c r="B153" s="0" t="n">
-        <f aca="false">VLOOKUP(A153, Sheet1!B153:C387,2,0)</f>
-        <v>15893222</v>
+        <f aca="false">VLOOKUP(A153, Sheet1!B152:C386,2,0)</f>
+        <v>2078938</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="str">
         <f aca="false">Sheet2!A153</f>
-        <v>South Africa</v>
+        <v>Somalia</v>
       </c>
       <c r="B154" s="0" t="n">
-        <f aca="false">VLOOKUP(A154, Sheet1!B154:C388,2,0)</f>
-        <v>59308690</v>
+        <f aca="false">VLOOKUP(A154, Sheet1!B153:C387,2,0)</f>
+        <v>15893222</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="str">
         <f aca="false">Sheet2!A154</f>
-        <v>South Sudan</v>
+        <v>South Africa</v>
       </c>
       <c r="B155" s="0" t="n">
-        <f aca="false">VLOOKUP(A155, Sheet1!B155:C389,2,0)</f>
-        <v>11193725</v>
+        <f aca="false">VLOOKUP(A155, Sheet1!B154:C388,2,0)</f>
+        <v>59308690</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="str">
         <f aca="false">Sheet2!A155</f>
-        <v>Spain</v>
+        <v>South Sudan</v>
       </c>
       <c r="B156" s="0" t="n">
-        <f aca="false">VLOOKUP(A156, Sheet1!B156:C390,2,0)</f>
-        <v>46754778</v>
+        <f aca="false">VLOOKUP(A156, Sheet1!B155:C389,2,0)</f>
+        <v>11193725</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="str">
         <f aca="false">Sheet2!A156</f>
-        <v>Sri Lanka</v>
+        <v>Spain</v>
       </c>
       <c r="B157" s="0" t="n">
-        <f aca="false">VLOOKUP(A157, Sheet1!B157:C391,2,0)</f>
-        <v>21413249</v>
+        <f aca="false">VLOOKUP(A157, Sheet1!B156:C390,2,0)</f>
+        <v>46754778</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="str">
         <f aca="false">Sheet2!A157</f>
-        <v>Sudan</v>
+        <v>Sri Lanka</v>
       </c>
       <c r="B158" s="0" t="n">
-        <f aca="false">VLOOKUP(A158, Sheet1!B158:C392,2,0)</f>
-        <v>43849260</v>
+        <f aca="false">VLOOKUP(A158, Sheet1!B157:C391,2,0)</f>
+        <v>21413249</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="str">
         <f aca="false">Sheet2!A158</f>
-        <v>Suriname</v>
+        <v>Sudan</v>
       </c>
       <c r="B159" s="0" t="n">
-        <f aca="false">VLOOKUP(A159, Sheet1!B159:C393,2,0)</f>
-        <v>586632</v>
+        <f aca="false">VLOOKUP(A159, Sheet1!B158:C392,2,0)</f>
+        <v>43849260</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="str">
         <f aca="false">Sheet2!A159</f>
-        <v>Sweden</v>
+        <v>Suriname</v>
       </c>
       <c r="B160" s="0" t="n">
-        <f aca="false">VLOOKUP(A160, Sheet1!B160:C394,2,0)</f>
-        <v>10099265</v>
+        <f aca="false">VLOOKUP(A160, Sheet1!B159:C393,2,0)</f>
+        <v>586632</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="str">
         <f aca="false">Sheet2!A160</f>
-        <v>Switzerland</v>
+        <v>Sweden</v>
       </c>
       <c r="B161" s="0" t="n">
-        <f aca="false">VLOOKUP(A161, Sheet1!B161:C395,2,0)</f>
-        <v>8654622</v>
+        <f aca="false">VLOOKUP(A161, Sheet1!B160:C394,2,0)</f>
+        <v>10099265</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="str">
         <f aca="false">Sheet2!A161</f>
-        <v>Syria</v>
+        <v>Switzerland</v>
       </c>
       <c r="B162" s="0" t="n">
-        <f aca="false">VLOOKUP(A162, Sheet1!B162:C396,2,0)</f>
-        <v>17500658</v>
+        <f aca="false">VLOOKUP(A162, Sheet1!B161:C395,2,0)</f>
+        <v>8654622</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="str">
         <f aca="false">Sheet2!A162</f>
-        <v>Taiwan</v>
+        <v>Syria</v>
       </c>
       <c r="B163" s="0" t="n">
-        <f aca="false">VLOOKUP(A163, Sheet1!B163:C397,2,0)</f>
-        <v>23816775</v>
+        <f aca="false">VLOOKUP(A163, Sheet1!B162:C396,2,0)</f>
+        <v>17500658</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="str">
         <f aca="false">Sheet2!A163</f>
-        <v>Tajikistan</v>
+        <v>Taiwan</v>
       </c>
       <c r="B164" s="0" t="n">
-        <f aca="false">VLOOKUP(A164, Sheet1!B164:C398,2,0)</f>
-        <v>9537645</v>
+        <f aca="false">VLOOKUP(A164, Sheet1!B163:C397,2,0)</f>
+        <v>23816775</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="str">
         <f aca="false">Sheet2!A164</f>
-        <v>Tanzania</v>
+        <v>Tajikistan</v>
       </c>
       <c r="B165" s="0" t="n">
-        <f aca="false">VLOOKUP(A165, Sheet1!B165:C399,2,0)</f>
-        <v>59734218</v>
+        <f aca="false">VLOOKUP(A165, Sheet1!B164:C398,2,0)</f>
+        <v>9537645</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="str">
         <f aca="false">Sheet2!A165</f>
-        <v>Thailand</v>
+        <v>Tanzania</v>
       </c>
       <c r="B166" s="0" t="n">
-        <f aca="false">VLOOKUP(A166, Sheet1!B166:C400,2,0)</f>
-        <v>69799978</v>
+        <f aca="false">VLOOKUP(A166, Sheet1!B165:C399,2,0)</f>
+        <v>59734218</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="str">
         <f aca="false">Sheet2!A166</f>
-        <v>Timor-Leste</v>
+        <v>Thailand</v>
       </c>
       <c r="B167" s="0" t="n">
-        <f aca="false">VLOOKUP(A167, Sheet1!B167:C401,2,0)</f>
-        <v>1318445</v>
+        <f aca="false">VLOOKUP(A167, Sheet1!B166:C400,2,0)</f>
+        <v>69799978</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="str">
         <f aca="false">Sheet2!A167</f>
-        <v>Togo</v>
+        <v>Timor-Leste</v>
       </c>
       <c r="B168" s="0" t="n">
-        <f aca="false">VLOOKUP(A168, Sheet1!B168:C402,2,0)</f>
-        <v>8278724</v>
+        <f aca="false">VLOOKUP(A168, Sheet1!B167:C401,2,0)</f>
+        <v>1318445</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="str">
         <f aca="false">Sheet2!A168</f>
-        <v>Trinidad and Tobago</v>
+        <v>Togo</v>
       </c>
       <c r="B169" s="0" t="n">
-        <f aca="false">VLOOKUP(A169, Sheet1!B169:C403,2,0)</f>
-        <v>1399488</v>
+        <f aca="false">VLOOKUP(A169, Sheet1!B168:C402,2,0)</f>
+        <v>8278724</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="str">
         <f aca="false">Sheet2!A169</f>
-        <v>Tunisia</v>
+        <v>Trinidad and Tobago</v>
       </c>
       <c r="B170" s="0" t="n">
-        <f aca="false">VLOOKUP(A170, Sheet1!B170:C404,2,0)</f>
-        <v>11818619</v>
+        <f aca="false">VLOOKUP(A170, Sheet1!B169:C403,2,0)</f>
+        <v>1399488</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="str">
         <f aca="false">Sheet2!A170</f>
-        <v>Turkey</v>
+        <v>Tunisia</v>
       </c>
       <c r="B171" s="0" t="n">
-        <f aca="false">VLOOKUP(A171, Sheet1!B171:C405,2,0)</f>
-        <v>84339067</v>
+        <f aca="false">VLOOKUP(A171, Sheet1!B170:C404,2,0)</f>
+        <v>11818619</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="str">
         <f aca="false">Sheet2!A171</f>
-        <v>US</v>
+        <v>Turkey</v>
       </c>
       <c r="B172" s="0" t="n">
-        <f aca="false">VLOOKUP(A172, Sheet1!A172:C406,3,0)</f>
-        <v>331002651</v>
+        <f aca="false">VLOOKUP(A172, Sheet1!B171:C405,2,0)</f>
+        <v>84339067</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="str">
         <f aca="false">Sheet2!A172</f>
-        <v>Uganda</v>
+        <v>US</v>
       </c>
       <c r="B173" s="0" t="n">
-        <f aca="false">VLOOKUP(A173, Sheet1!B173:C407,2,0)</f>
-        <v>45741007</v>
+        <f aca="false">VLOOKUP(A173, Sheet1!A172:C406,3,0)</f>
+        <v>331002651</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="str">
         <f aca="false">Sheet2!A173</f>
-        <v>Ukraine</v>
+        <v>Uganda</v>
       </c>
       <c r="B174" s="0" t="n">
-        <f aca="false">VLOOKUP(A174, Sheet1!B174:C408,2,0)</f>
-        <v>43733762</v>
+        <f aca="false">VLOOKUP(A174, Sheet1!B173:C407,2,0)</f>
+        <v>45741007</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="str">
         <f aca="false">Sheet2!A174</f>
-        <v>United Arab Emirates</v>
+        <v>Ukraine</v>
       </c>
       <c r="B175" s="0" t="n">
-        <f aca="false">VLOOKUP(A175, Sheet1!B175:C409,2,0)</f>
-        <v>9890402</v>
+        <f aca="false">VLOOKUP(A175, Sheet1!B174:C408,2,0)</f>
+        <v>43733762</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="str">
         <f aca="false">Sheet2!A175</f>
-        <v>United Kingdom</v>
+        <v>United Arab Emirates</v>
       </c>
       <c r="B176" s="0" t="n">
-        <f aca="false">VLOOKUP(A176, Sheet1!B176:C410,2,0)</f>
-        <v>67886011</v>
+        <f aca="false">VLOOKUP(A176, Sheet1!B175:C409,2,0)</f>
+        <v>9890402</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="str">
         <f aca="false">Sheet2!A176</f>
-        <v>Uruguay</v>
+        <v>United Kingdom</v>
       </c>
       <c r="B177" s="0" t="n">
-        <f aca="false">VLOOKUP(A177, Sheet1!B177:C411,2,0)</f>
-        <v>3473730</v>
+        <f aca="false">VLOOKUP(A177, Sheet1!B176:C410,2,0)</f>
+        <v>67886011</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="str">
         <f aca="false">Sheet2!A177</f>
-        <v>Uzbekistan</v>
+        <v>Uruguay</v>
       </c>
       <c r="B178" s="0" t="n">
-        <f aca="false">VLOOKUP(A178, Sheet1!B178:C412,2,0)</f>
-        <v>33469203</v>
+        <f aca="false">VLOOKUP(A178, Sheet1!B177:C411,2,0)</f>
+        <v>3473730</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="str">
         <f aca="false">Sheet2!A178</f>
-        <v>Venezuela</v>
+        <v>Uzbekistan</v>
       </c>
       <c r="B179" s="0" t="n">
-        <f aca="false">VLOOKUP(A179, Sheet1!B179:C413,2,0)</f>
-        <v>28435940</v>
+        <f aca="false">VLOOKUP(A179, Sheet1!B178:C412,2,0)</f>
+        <v>33469203</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="str">
         <f aca="false">Sheet2!A179</f>
-        <v>Vietnam</v>
+        <v>Venezuela</v>
       </c>
       <c r="B180" s="0" t="n">
-        <f aca="false">VLOOKUP(A180, Sheet1!B180:C414,2,0)</f>
-        <v>97338579</v>
+        <f aca="false">VLOOKUP(A180, Sheet1!B179:C413,2,0)</f>
+        <v>28435940</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="str">
         <f aca="false">Sheet2!A180</f>
-        <v>West Bank and Gaza</v>
+        <v>Vietnam</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>4569000</v>
-      </c>
-      <c r="C181" s="0" t="s">
-        <v>250</v>
+        <f aca="false">VLOOKUP(A181, Sheet1!B180:C414,2,0)</f>
+        <v>97338579</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="str">
         <f aca="false">Sheet2!A181</f>
-        <v>Western Sahara</v>
+        <v>West Bank and Gaza</v>
       </c>
       <c r="B182" s="0" t="n">
-        <f aca="false">VLOOKUP(A182, Sheet1!B182:C416,2,0)</f>
-        <v>597339</v>
+        <v>4569000</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="str">
         <f aca="false">Sheet2!A182</f>
-        <v>Yemen</v>
+        <v>Western Sahara</v>
       </c>
       <c r="B183" s="0" t="n">
-        <f aca="false">VLOOKUP(A183, Sheet1!B183:C417,2,0)</f>
-        <v>29825964</v>
+        <f aca="false">VLOOKUP(A183, Sheet1!B182:C416,2,0)</f>
+        <v>597339</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="str">
         <f aca="false">Sheet2!A183</f>
-        <v>Zambia</v>
+        <v>Yemen</v>
       </c>
       <c r="B184" s="0" t="n">
-        <f aca="false">VLOOKUP(A184, Sheet1!B184:C418,2,0)</f>
-        <v>18383955</v>
+        <f aca="false">VLOOKUP(A184, Sheet1!B183:C417,2,0)</f>
+        <v>29825964</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="str">
         <f aca="false">Sheet2!A184</f>
+        <v>Zambia</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <f aca="false">VLOOKUP(A185, Sheet1!B184:C418,2,0)</f>
+        <v>18383955</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="str">
+        <f aca="false">Sheet2!A185</f>
         <v>Zimbabwe</v>
       </c>
-      <c r="B185" s="0" t="n">
-        <f aca="false">VLOOKUP(A185, Sheet1!B185:C419,2,0)</f>
+      <c r="B186" s="0" t="n">
+        <f aca="false">VLOOKUP(A186, Sheet1!B185:C419,2,0)</f>
         <v>14862924</v>
       </c>
     </row>

--- a/population_table.xlsx
+++ b/population_table.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$C$236</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="348">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -775,6 +776,297 @@
   </si>
   <si>
     <t xml:space="preserve">West Bank and Gaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countries and territories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guernsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kildare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luzon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soccsksargen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alt. Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lockdown Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lockdown End</t>
   </si>
   <si>
     <t xml:space="preserve">Google</t>
@@ -784,10 +1076,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -828,6 +1121,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -872,7 +1170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -887,6 +1185,18 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -913,10 +1223,10 @@
   <dimension ref="A1:E236"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C73" activeCellId="0" sqref="C73"/>
+      <selection pane="topLeft" activeCell="C73" activeCellId="1" sqref="D2:E186 C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.99"/>
@@ -3102,10 +3412,10 @@
   <dimension ref="A1:A185"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
+      <selection pane="topLeft" activeCell="A60" activeCellId="1" sqref="D2:E186 A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.57"/>
   </cols>
@@ -4051,16 +4361,1882 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="D2:E186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="0" t="str">
+        <f aca="false">TEXT(B2, "mm/dd/yy")</f>
+        <v>03/13/20</v>
+      </c>
+      <c r="E2" s="0" t="str">
+        <f aca="false">TEXT(C2, "mm/dd/yy")</f>
+        <v>06/01/20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="0" t="str">
+        <f aca="false">TEXT(B3, "mm/dd/yy")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E3" s="0" t="str">
+        <f aca="false">TEXT(C3, "mm/dd/yy")</f>
+        <v>05/14/20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="0" t="str">
+        <f aca="false">TEXT(B4, "mm/dd/yy")</f>
+        <v>03/19/20</v>
+      </c>
+      <c r="E4" s="0" t="str">
+        <f aca="false">TEXT(C4, "mm/dd/yy")</f>
+        <v>06/28/20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="0" t="str">
+        <f aca="false">TEXT(B5, "mm/dd/yy")</f>
+        <v>03/24/20</v>
+      </c>
+      <c r="E5" s="0" t="str">
+        <f aca="false">TEXT(C5, "mm/dd/yy")</f>
+        <v>05/04/20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="0" t="str">
+        <f aca="false">TEXT(B6, "mm/dd/yy")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E6" s="0" t="str">
+        <f aca="false">TEXT(C6, "mm/dd/yy")</f>
+        <v>07/08/20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="0" t="str">
+        <f aca="false">TEXT(B7, "mm/dd/yy")</f>
+        <v>03/16/20</v>
+      </c>
+      <c r="E7" s="0" t="str">
+        <f aca="false">TEXT(C7, "mm/dd/yy")</f>
+        <v>04/13/20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="0" t="str">
+        <f aca="false">TEXT(B8, "mm/dd/yy")</f>
+        <v>03/31/20</v>
+      </c>
+      <c r="E8" s="0" t="str">
+        <f aca="false">TEXT(C8, "mm/dd/yy")</f>
+        <v>08/30/20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="0" t="str">
+        <f aca="false">TEXT(B9, "mm/dd/yy")</f>
+        <v>03/26/20</v>
+      </c>
+      <c r="E9" s="0" t="str">
+        <f aca="false">TEXT(C9, "mm/dd/yy")</f>
+        <v>05/16/20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="0" t="str">
+        <f aca="false">TEXT(B10, "mm/dd/yy")</f>
+        <v>03/28/20</v>
+      </c>
+      <c r="E10" s="0" t="str">
+        <f aca="false">TEXT(C10, "mm/dd/yy")</f>
+        <v>05/03/20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="0" t="str">
+        <f aca="false">TEXT(B11, "mm/dd/yy")</f>
+        <v>03/18/20</v>
+      </c>
+      <c r="E11" s="0" t="str">
+        <f aca="false">TEXT(C11, "mm/dd/yy")</f>
+        <v>05/04/20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="0" t="str">
+        <f aca="false">TEXT(B12, "mm/dd/yy")</f>
+        <v>04/04/20</v>
+      </c>
+      <c r="E12" s="0" t="str">
+        <f aca="false">TEXT(C12, "mm/dd/yy")</f>
+        <v>05/02/20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="0" t="str">
+        <f aca="false">TEXT(B13, "mm/dd/yy")</f>
+        <v>08/11/20</v>
+      </c>
+      <c r="E13" s="0" t="str">
+        <f aca="false">TEXT(C13, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="0" t="str">
+        <f aca="false">TEXT(B14, "mm/dd/yy")</f>
+        <v>03/22/20</v>
+      </c>
+      <c r="E14" s="0" t="str">
+        <f aca="false">TEXT(C14, "mm/dd/yy")</f>
+        <v>07/31/20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="0" t="str">
+        <f aca="false">TEXT(B15, "mm/dd/yy")</f>
+        <v>04/02/20</v>
+      </c>
+      <c r="E15" s="0" t="str">
+        <f aca="false">TEXT(C15, "mm/dd/yy")</f>
+        <v>04/30/20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="0" t="str">
+        <f aca="false">TEXT(B16, "mm/dd/yy")</f>
+        <v>03/17/20</v>
+      </c>
+      <c r="E16" s="0" t="str">
+        <f aca="false">TEXT(C16, "mm/dd/yy")</f>
+        <v>04/07/20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="0" t="str">
+        <f aca="false">TEXT(B17, "mm/dd/yy")</f>
+        <v>03/24/20</v>
+      </c>
+      <c r="E17" s="0" t="str">
+        <f aca="false">TEXT(C17, "mm/dd/yy")</f>
+        <v>05/10/20</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="0" t="str">
+        <f aca="false">TEXT(B18, "mm/dd/yy")</f>
+        <v>01/23/20</v>
+      </c>
+      <c r="E18" s="0" t="str">
+        <f aca="false">TEXT(C18, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="0" t="str">
+        <f aca="false">TEXT(B19, "mm/dd/yy")</f>
+        <v>03/25/20</v>
+      </c>
+      <c r="E19" s="0" t="str">
+        <f aca="false">TEXT(C19, "mm/dd/yy")</f>
+        <v>06/30/20</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>43921</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="0" t="str">
+        <f aca="false">TEXT(B20, "mm/dd/yy")</f>
+        <v>03/31/20</v>
+      </c>
+      <c r="E20" s="0" t="str">
+        <f aca="false">TEXT(C20, "mm/dd/yy")</f>
+        <v>04/20/20</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="0" t="str">
+        <f aca="false">TEXT(B21, "mm/dd/yy")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E21" s="0" t="str">
+        <f aca="false">TEXT(C21, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="0" t="str">
+        <f aca="false">TEXT(B22, "mm/dd/yy")</f>
+        <v>03/18/20</v>
+      </c>
+      <c r="E22" s="0" t="str">
+        <f aca="false">TEXT(C22, "mm/dd/yy")</f>
+        <v>04/19/20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="0" t="str">
+        <f aca="false">TEXT(B23, "mm/dd/yy")</f>
+        <v>03/16/20</v>
+      </c>
+      <c r="E23" s="0" t="str">
+        <f aca="false">TEXT(C23, "mm/dd/yy")</f>
+        <v>04/12/20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="0" t="str">
+        <f aca="false">TEXT(B24, "mm/dd/yy")</f>
+        <v>03/16/20</v>
+      </c>
+      <c r="E24" s="0" t="str">
+        <f aca="false">TEXT(C24, "mm/dd/yy")</f>
+        <v>03/31/20</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="0" t="str">
+        <f aca="false">TEXT(B25, "mm/dd/yy")</f>
+        <v>03/12/20</v>
+      </c>
+      <c r="E25" s="0" t="str">
+        <f aca="false">TEXT(C25, "mm/dd/yy")</f>
+        <v>04/02/20</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="0" t="str">
+        <f aca="false">TEXT(B26, "mm/dd/yy")</f>
+        <v>04/02/20</v>
+      </c>
+      <c r="E26" s="0" t="str">
+        <f aca="false">TEXT(C26, "mm/dd/yy")</f>
+        <v>04/23/20</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="0" t="str">
+        <f aca="false">TEXT(B27, "mm/dd/yy")</f>
+        <v>03/20/20</v>
+      </c>
+      <c r="E27" s="0" t="str">
+        <f aca="false">TEXT(C27, "mm/dd/yy")</f>
+        <v>04/07/20</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D28" s="0" t="str">
+        <f aca="false">TEXT(B28, "mm/dd/yy")</f>
+        <v>04/03/20</v>
+      </c>
+      <c r="E28" s="0" t="str">
+        <f aca="false">TEXT(C28, "mm/dd/yy")</f>
+        <v>04/17/20</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="0" t="str">
+        <f aca="false">TEXT(B29, "mm/dd/yy")</f>
+        <v>03/17/20</v>
+      </c>
+      <c r="E29" s="0" t="str">
+        <f aca="false">TEXT(C29, "mm/dd/yy")</f>
+        <v>05/11/20</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" s="0" t="str">
+        <f aca="false">TEXT(B30, "mm/dd/yy")</f>
+        <v>03/31/20</v>
+      </c>
+      <c r="E30" s="0" t="str">
+        <f aca="false">TEXT(C30, "mm/dd/yy")</f>
+        <v>04/21/20</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="0" t="str">
+        <f aca="false">TEXT(B31, "mm/dd/yy")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E31" s="0" t="str">
+        <f aca="false">TEXT(C31, "mm/dd/yy")</f>
+        <v>04/20/20</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32" s="0" t="str">
+        <f aca="false">TEXT(B32, "mm/dd/yy")</f>
+        <v>03/30/20</v>
+      </c>
+      <c r="E32" s="0" t="str">
+        <f aca="false">TEXT(C32, "mm/dd/yy")</f>
+        <v>04/12/20</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="0" t="str">
+        <f aca="false">TEXT(B33, "mm/dd/yy")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E33" s="0" t="str">
+        <f aca="false">TEXT(C33, "mm/dd/yy")</f>
+        <v>05/04/20</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D34" s="0" t="str">
+        <f aca="false">TEXT(B34, "mm/dd/yy")</f>
+        <v>03/25/20</v>
+      </c>
+      <c r="E34" s="0" t="str">
+        <f aca="false">TEXT(C34, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D35" s="0" t="str">
+        <f aca="false">TEXT(B35, "mm/dd/yy")</f>
+        <v>03/20/20</v>
+      </c>
+      <c r="E35" s="0" t="str">
+        <f aca="false">TEXT(C35, "mm/dd/yy")</f>
+        <v>05/17/20</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D36" s="0" t="str">
+        <f aca="false">TEXT(B36, "mm/dd/yy")</f>
+        <v>03/28/20</v>
+      </c>
+      <c r="E36" s="0" t="str">
+        <f aca="false">TEXT(C36, "mm/dd/yy")</f>
+        <v>04/10/20</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" s="0" t="str">
+        <f aca="false">TEXT(B37, "mm/dd/yy")</f>
+        <v>03/25/20</v>
+      </c>
+      <c r="E37" s="0" t="str">
+        <f aca="false">TEXT(C37, "mm/dd/yy")</f>
+        <v>06/30/20</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D38" s="0" t="str">
+        <f aca="false">TEXT(B38, "mm/dd/yy")</f>
+        <v>03/14/20</v>
+      </c>
+      <c r="E38" s="0" t="str">
+        <f aca="false">TEXT(C38, "mm/dd/yy")</f>
+        <v>04/20/20</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" s="0" t="str">
+        <f aca="false">TEXT(B39, "mm/dd/yy")</f>
+        <v>03/22/20</v>
+      </c>
+      <c r="E39" s="0" t="str">
+        <f aca="false">TEXT(C39, "mm/dd/yy")</f>
+        <v>04/11/20</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D40" s="0" t="str">
+        <f aca="false">TEXT(B40, "mm/dd/yy")</f>
+        <v>03/12/20</v>
+      </c>
+      <c r="E40" s="0" t="str">
+        <f aca="false">TEXT(C40, "mm/dd/yy")</f>
+        <v>05/18/20</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" s="0" t="str">
+        <f aca="false">TEXT(B41, "mm/dd/yy")</f>
+        <v>08/07/20</v>
+      </c>
+      <c r="E41" s="0" t="str">
+        <f aca="false">TEXT(C41, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="0" t="str">
+        <f aca="false">TEXT(B42, "mm/dd/yy")</f>
+        <v>04/02/20</v>
+      </c>
+      <c r="E42" s="0" t="str">
+        <f aca="false">TEXT(C42, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" s="0" t="str">
+        <f aca="false">TEXT(B43, "mm/dd/yy")</f>
+        <v>03/09/20</v>
+      </c>
+      <c r="E43" s="0" t="str">
+        <f aca="false">TEXT(C43, "mm/dd/yy")</f>
+        <v>05/18/20</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D44" s="0" t="str">
+        <f aca="false">TEXT(B44, "mm/dd/yy")</f>
+        <v>04/15/20</v>
+      </c>
+      <c r="E44" s="0" t="str">
+        <f aca="false">TEXT(C44, "mm/dd/yy")</f>
+        <v>04/22/20</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D45" s="0" t="str">
+        <f aca="false">TEXT(B45, "mm/dd/yy")</f>
+        <v>03/18/20</v>
+      </c>
+      <c r="E45" s="0" t="str">
+        <f aca="false">TEXT(C45, "mm/dd/yy")</f>
+        <v>04/30/20</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D46" s="0" t="str">
+        <f aca="false">TEXT(B46, "mm/dd/yy")</f>
+        <v>03/14/20</v>
+      </c>
+      <c r="E46" s="0" t="str">
+        <f aca="false">TEXT(C46, "mm/dd/yy")</f>
+        <v>05/04/20</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" s="0" t="str">
+        <f aca="false">TEXT(B47, "mm/dd/yy")</f>
+        <v>03/14/20</v>
+      </c>
+      <c r="E47" s="0" t="str">
+        <f aca="false">TEXT(C47, "mm/dd/yy")</f>
+        <v>03/29/20</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" s="0" t="str">
+        <f aca="false">TEXT(B48, "mm/dd/yy")</f>
+        <v>03/15/20</v>
+      </c>
+      <c r="E48" s="0" t="str">
+        <f aca="false">TEXT(C48, "mm/dd/yy")</f>
+        <v>03/28/20</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D49" s="0" t="str">
+        <f aca="false">TEXT(B49, "mm/dd/yy")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E49" s="0" t="str">
+        <f aca="false">TEXT(C49, "mm/dd/yy")</f>
+        <v>04/11/20</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" s="0" t="str">
+        <f aca="false">TEXT(B50, "mm/dd/yy")</f>
+        <v>03/22/20</v>
+      </c>
+      <c r="E50" s="0" t="str">
+        <f aca="false">TEXT(C50, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D51" s="0" t="str">
+        <f aca="false">TEXT(B51, "mm/dd/yy")</f>
+        <v>03/16/20</v>
+      </c>
+      <c r="E51" s="0" t="str">
+        <f aca="false">TEXT(C51, "mm/dd/yy")</f>
+        <v>06/18/20</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D52" s="0" t="str">
+        <f aca="false">TEXT(B52, "mm/dd/yy")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E52" s="0" t="str">
+        <f aca="false">TEXT(C52, "mm/dd/yy")</f>
+        <v>04/20/20</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" s="0" t="str">
+        <f aca="false">TEXT(B53, "mm/dd/yy")</f>
+        <v>03/18/20</v>
+      </c>
+      <c r="E53" s="0" t="str">
+        <f aca="false">TEXT(C53, "mm/dd/yy")</f>
+        <v>06/09/20</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" s="0" t="str">
+        <f aca="false">TEXT(B54, "mm/dd/yy")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E54" s="0" t="str">
+        <f aca="false">TEXT(C54, "mm/dd/yy")</f>
+        <v>06/01/20</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="0" t="str">
+        <f aca="false">TEXT(B55, "mm/dd/yy")</f>
+        <v>03/10/20</v>
+      </c>
+      <c r="E55" s="0" t="str">
+        <f aca="false">TEXT(C55, "mm/dd/yy")</f>
+        <v>03/16/20</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D56" s="0" t="str">
+        <f aca="false">TEXT(B56, "mm/dd/yy")</f>
+        <v>03/24/20</v>
+      </c>
+      <c r="E56" s="0" t="str">
+        <f aca="false">TEXT(C56, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" s="0" t="str">
+        <f aca="false">TEXT(B57, "mm/dd/yy")</f>
+        <v>03/19/20</v>
+      </c>
+      <c r="E57" s="0" t="str">
+        <f aca="false">TEXT(C57, "mm/dd/yy")</f>
+        <v>06/10/20</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58" s="0" t="str">
+        <f aca="false">TEXT(B58, "mm/dd/yy")</f>
+        <v>03/27/20</v>
+      </c>
+      <c r="E58" s="0" t="str">
+        <f aca="false">TEXT(C58, "mm/dd/yy")</f>
+        <v>05/04/20</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D59" s="0" t="str">
+        <f aca="false">TEXT(B59, "mm/dd/yy")</f>
+        <v>03/24/20</v>
+      </c>
+      <c r="E59" s="0" t="str">
+        <f aca="false">TEXT(C59, "mm/dd/yy")</f>
+        <v>06/14/20</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" s="0" t="str">
+        <f aca="false">TEXT(B60, "mm/dd/yy")</f>
+        <v>03/26/20</v>
+      </c>
+      <c r="E60" s="0" t="str">
+        <f aca="false">TEXT(C60, "mm/dd/yy")</f>
+        <v>05/14/20</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D61" s="0" t="str">
+        <f aca="false">TEXT(B61, "mm/dd/yy")</f>
+        <v>03/30/20</v>
+      </c>
+      <c r="E61" s="0" t="str">
+        <f aca="false">TEXT(C61, "mm/dd/yy")</f>
+        <v>04/12/20</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" s="0" t="str">
+        <f aca="false">TEXT(B62, "mm/dd/yy")</f>
+        <v>03/30/20</v>
+      </c>
+      <c r="E62" s="0" t="str">
+        <f aca="false">TEXT(C62, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D63" s="0" t="str">
+        <f aca="false">TEXT(B63, "mm/dd/yy")</f>
+        <v>04/10/20</v>
+      </c>
+      <c r="E63" s="0" t="str">
+        <f aca="false">TEXT(C63, "mm/dd/yy")</f>
+        <v>05/29/20</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D64" s="0" t="str">
+        <f aca="false">TEXT(B64, "mm/dd/yy")</f>
+        <v>04/16/20</v>
+      </c>
+      <c r="E64" s="0" t="str">
+        <f aca="false">TEXT(C64, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D65" s="0" t="str">
+        <f aca="false">TEXT(B65, "mm/dd/yy")</f>
+        <v>03/24/20</v>
+      </c>
+      <c r="E65" s="0" t="str">
+        <f aca="false">TEXT(C65, "mm/dd/yy")</f>
+        <v>05/09/20</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D66" s="0" t="str">
+        <f aca="false">TEXT(B66, "mm/dd/yy")</f>
+        <v>03/25/20</v>
+      </c>
+      <c r="E66" s="0" t="str">
+        <f aca="false">TEXT(C66, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67" s="0" t="str">
+        <f aca="false">TEXT(B67, "mm/dd/yy")</f>
+        <v>03/24/20</v>
+      </c>
+      <c r="E67" s="0" t="str">
+        <f aca="false">TEXT(C67, "mm/dd/yy")</f>
+        <v>04/07/20</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="0" t="str">
+        <f aca="false">TEXT(B68, "mm/dd/yy")</f>
+        <v>03/20/20</v>
+      </c>
+      <c r="E68" s="0" t="str">
+        <f aca="false">TEXT(C68, "mm/dd/yy")</f>
+        <v>05/03/20</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D69" s="0" t="str">
+        <f aca="false">TEXT(B69, "mm/dd/yy")</f>
+        <v>03/16/20</v>
+      </c>
+      <c r="E69" s="0" t="str">
+        <f aca="false">TEXT(C69, "mm/dd/yy")</f>
+        <v>06/30/20</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D70" s="0" t="str">
+        <f aca="false">TEXT(B70, "mm/dd/yy")</f>
+        <v>03/27/20</v>
+      </c>
+      <c r="E70" s="0" t="str">
+        <f aca="false">TEXT(C70, "mm/dd/yy")</f>
+        <v>05/15/20</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" s="0" t="str">
+        <f aca="false">TEXT(B71, "mm/dd/yy")</f>
+        <v>03/15/20</v>
+      </c>
+      <c r="E71" s="0" t="str">
+        <f aca="false">TEXT(C71, "mm/dd/yy")</f>
+        <v>04/30/20</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D72" s="0" t="str">
+        <f aca="false">TEXT(B72, "mm/dd/yy")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E72" s="0" t="str">
+        <f aca="false">TEXT(C72, "mm/dd/yy")</f>
+        <v>05/15/20</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D73" s="0" t="str">
+        <f aca="false">TEXT(B73, "mm/dd/yy")</f>
+        <v>03/13/20</v>
+      </c>
+      <c r="E73" s="0" t="str">
+        <f aca="false">TEXT(C73, "mm/dd/yy")</f>
+        <v>04/11/20</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74" s="0" t="str">
+        <f aca="false">TEXT(B74, "mm/dd/yy")</f>
+        <v>03/19/20</v>
+      </c>
+      <c r="E74" s="0" t="str">
+        <f aca="false">TEXT(C74, "mm/dd/yy")</f>
+        <v>04/02/20</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D75" s="0" t="str">
+        <f aca="false">TEXT(B75, "mm/dd/yy")</f>
+        <v>03/11/20</v>
+      </c>
+      <c r="E75" s="0" t="str">
+        <f aca="false">TEXT(C75, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D76" s="0" t="str">
+        <f aca="false">TEXT(B76, "mm/dd/yy")</f>
+        <v>03/25/20</v>
+      </c>
+      <c r="E76" s="0" t="str">
+        <f aca="false">TEXT(C76, "mm/dd/yy")</f>
+        <v>05/12/20</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D77" s="0" t="str">
+        <f aca="false">TEXT(B77, "mm/dd/yy")</f>
+        <v>03/30/20</v>
+      </c>
+      <c r="E77" s="0" t="str">
+        <f aca="false">TEXT(C77, "mm/dd/yy")</f>
+        <v>05/12/20</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D78" s="0" t="str">
+        <f aca="false">TEXT(B78, "mm/dd/yy")</f>
+        <v>03/21/20</v>
+      </c>
+      <c r="E78" s="0" t="str">
+        <f aca="false">TEXT(C78, "mm/dd/yy")</f>
+        <v>04/19/20</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D79" s="0" t="str">
+        <f aca="false">TEXT(B79, "mm/dd/yy")</f>
+        <v>03/26/20</v>
+      </c>
+      <c r="E79" s="0" t="str">
+        <f aca="false">TEXT(C79, "mm/dd/yy")</f>
+        <v>04/08/20</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D80" s="0" t="str">
+        <f aca="false">TEXT(B80, "mm/dd/yy")</f>
+        <v>03/14/20</v>
+      </c>
+      <c r="E80" s="0" t="str">
+        <f aca="false">TEXT(C80, "mm/dd/yy")</f>
+        <v>05/05/20</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D81" s="0" t="str">
+        <f aca="false">TEXT(B81, "mm/dd/yy")</f>
+        <v>03/29/20</v>
+      </c>
+      <c r="E81" s="0" t="str">
+        <f aca="false">TEXT(C81, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D82" s="0" t="str">
+        <f aca="false">TEXT(B82, "mm/dd/yy")</f>
+        <v>03/26/20</v>
+      </c>
+      <c r="E82" s="0" t="str">
+        <f aca="false">TEXT(C82, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83" s="0" t="str">
+        <f aca="false">TEXT(B83, "mm/dd/yy")</f>
+        <v>03/09/20</v>
+      </c>
+      <c r="E83" s="0" t="str">
+        <f aca="false">TEXT(C83, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D84" s="0" t="str">
+        <f aca="false">TEXT(B84, "mm/dd/yy")</f>
+        <v>03/26/20</v>
+      </c>
+      <c r="E84" s="0" t="str">
+        <f aca="false">TEXT(C84, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D85" s="0" t="str">
+        <f aca="false">TEXT(B85, "mm/dd/yy")</f>
+        <v>03/15/20</v>
+      </c>
+      <c r="E85" s="0" t="str">
+        <f aca="false">TEXT(C85, "mm/dd/yy")</f>
+        <v>04/21/20</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" s="0" t="str">
+        <f aca="false">TEXT(B86, "mm/dd/yy")</f>
+        <v>04/07/20</v>
+      </c>
+      <c r="E86" s="0" t="str">
+        <f aca="false">TEXT(C86, "mm/dd/yy")</f>
+        <v>06/01/20</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" s="0" t="str">
+        <f aca="false">TEXT(B87, "mm/dd/yy")</f>
+        <v>03/26/20</v>
+      </c>
+      <c r="E87" s="0" t="str">
+        <f aca="false">TEXT(C87, "mm/dd/yy")</f>
+        <v>04/30/20</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D88" s="0" t="str">
+        <f aca="false">TEXT(B88, "mm/dd/yy")</f>
+        <v>03/14/20</v>
+      </c>
+      <c r="E88" s="0" t="str">
+        <f aca="false">TEXT(C88, "mm/dd/yy")</f>
+        <v>05/09/20</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D89" s="0" t="str">
+        <f aca="false">TEXT(B89, "mm/dd/yy")</f>
+        <v>03/18/20</v>
+      </c>
+      <c r="E89" s="0" t="str">
+        <f aca="false">TEXT(C89, "mm/dd/yy")</f>
+        <v>06/21/20</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D90" s="0" t="str">
+        <f aca="false">TEXT(B90, "mm/dd/yy")</f>
+        <v>03/25/20</v>
+      </c>
+      <c r="E90" s="0" t="str">
+        <f aca="false">TEXT(C90, "mm/dd/yy")</f>
+        <v>05/31/20</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D91" s="0" t="str">
+        <f aca="false">TEXT(B91, "mm/dd/yy")</f>
+        <v>03/17/20</v>
+      </c>
+      <c r="E91" s="0" t="str">
+        <f aca="false">TEXT(C91, "mm/dd/yy")</f>
+        <v>03/31/20</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D92" s="0" t="str">
+        <f aca="false">TEXT(B92, "mm/dd/yy")</f>
+        <v>03/22/20</v>
+      </c>
+      <c r="E92" s="0" t="str">
+        <f aca="false">TEXT(C92, "mm/dd/yy")</f>
+        <v>04/19/20</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D93" s="0" t="str">
+        <f aca="false">TEXT(B93, "mm/dd/yy")</f>
+        <v>04/23/20</v>
+      </c>
+      <c r="E93" s="0" t="str">
+        <f aca="false">TEXT(C93, "mm/dd/yy")</f>
+        <v>04/27/20</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D94" s="0" t="str">
+        <f aca="false">TEXT(B94, "mm/dd/yy")</f>
+        <v>03/17/20</v>
+      </c>
+      <c r="E94" s="0" t="str">
+        <f aca="false">TEXT(C94, "mm/dd/yy")</f>
+        <v>04/24/20</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" s="0" t="str">
+        <f aca="false">TEXT(B95, "mm/dd/yy")</f>
+        <v>03/26/20</v>
+      </c>
+      <c r="E95" s="0" t="str">
+        <f aca="false">TEXT(C95, "mm/dd/yy")</f>
+        <v>04/17/20</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" s="0" t="str">
+        <f aca="false">TEXT(B96, "mm/dd/yy")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E96" s="0" t="str">
+        <f aca="false">TEXT(C96, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D97" s="0" t="str">
+        <f aca="false">TEXT(B97, "mm/dd/yy")</f>
+        <v>03/19/20</v>
+      </c>
+      <c r="E97" s="0" t="str">
+        <f aca="false">TEXT(C97, "mm/dd/yy")</f>
+        <v>12/30/99</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D98" s="0" t="str">
+        <f aca="false">TEXT(B98, "mm/dd/yy")</f>
+        <v>03/17/20</v>
+      </c>
+      <c r="E98" s="0" t="str">
+        <f aca="false">TEXT(C98, "mm/dd/yy")</f>
+        <v>05/13/20</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D99" s="0" t="str">
+        <f aca="false">TEXT(B99, "mm/dd/yy")</f>
+        <v>04/01/20</v>
+      </c>
+      <c r="E99" s="0" t="str">
+        <f aca="false">TEXT(C99, "mm/dd/yy")</f>
+        <v>04/22/20</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D100" s="0" t="str">
+        <f aca="false">TEXT(B100, "mm/dd/yy")</f>
+        <v>03/30/20</v>
+      </c>
+      <c r="E100" s="0" t="str">
+        <f aca="false">TEXT(C100, "mm/dd/yy")</f>
+        <v>05/02/20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E186"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:E186"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="17.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,6 +6248,15 @@
         <f aca="false">Sheet1!C1</f>
         <v>Population</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
@@ -4082,6 +6267,14 @@
         <f aca="false">VLOOKUP(A2, Sheet1!B2:C236,2,0)</f>
         <v>38928346</v>
       </c>
+      <c r="D2" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A2, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A2, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
@@ -4092,6 +6285,14 @@
         <f aca="false">VLOOKUP(A3, Sheet1!B3:C237,2,0)</f>
         <v>2877797</v>
       </c>
+      <c r="D3" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A3, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/13/20</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A3, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>06/01/20</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
@@ -4102,6 +6303,14 @@
         <f aca="false">VLOOKUP(A4, Sheet1!B4:C238,2,0)</f>
         <v>43851044</v>
       </c>
+      <c r="D4" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A4, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A4, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/14/20</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
@@ -4112,6 +6321,14 @@
         <f aca="false">VLOOKUP(A5, Sheet1!B5:C239,2,0)</f>
         <v>77265</v>
       </c>
+      <c r="D5" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A5, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A5, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
@@ -4122,6 +6339,14 @@
         <f aca="false">VLOOKUP(A6, Sheet1!B6:C240,2,0)</f>
         <v>32866272</v>
       </c>
+      <c r="D6" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A6, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A6, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="str">
@@ -4132,6 +6357,14 @@
         <f aca="false">VLOOKUP(A7, Sheet1!B7:C241,2,0)</f>
         <v>97929</v>
       </c>
+      <c r="D7" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A7, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A7, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="str">
@@ -4142,6 +6375,14 @@
         <f aca="false">VLOOKUP(A8, Sheet1!B8:C242,2,0)</f>
         <v>45195774</v>
       </c>
+      <c r="D8" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A8, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/19/20</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A8, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>06/28/20</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="str">
@@ -4152,6 +6393,14 @@
         <f aca="false">VLOOKUP(A9, Sheet1!B9:C243,2,0)</f>
         <v>2963243</v>
       </c>
+      <c r="D9" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A9, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/24/20</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A9, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/04/20</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="str">
@@ -4162,6 +6411,14 @@
         <f aca="false">VLOOKUP(A10, Sheet1!B10:C244,2,0)</f>
         <v>25499884</v>
       </c>
+      <c r="D10" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A10, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A10, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>07/08/20</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="str">
@@ -4172,6 +6429,14 @@
         <f aca="false">VLOOKUP(A11, Sheet1!B11:C245,2,0)</f>
         <v>9006398</v>
       </c>
+      <c r="D11" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A11, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/16/20</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A11, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/13/20</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="str">
@@ -4182,6 +6447,14 @@
         <f aca="false">VLOOKUP(A12, Sheet1!B12:C246,2,0)</f>
         <v>10139177</v>
       </c>
+      <c r="D12" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A12, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/31/20</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A12, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>08/30/20</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="str">
@@ -4192,6 +6465,14 @@
         <f aca="false">VLOOKUP(A13, Sheet1!B13:C247,2,0)</f>
         <v>393244</v>
       </c>
+      <c r="D13" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A13, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A13, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="str">
@@ -4202,6 +6483,14 @@
         <f aca="false">VLOOKUP(A14, Sheet1!B14:C248,2,0)</f>
         <v>1701575</v>
       </c>
+      <c r="D14" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A14, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A14, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
@@ -4212,6 +6501,14 @@
         <f aca="false">VLOOKUP(A15, Sheet1!B15:C249,2,0)</f>
         <v>164689383</v>
       </c>
+      <c r="D15" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A15, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/26/20</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A15, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/16/20</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="str">
@@ -4222,6 +6519,14 @@
         <f aca="false">VLOOKUP(A16, Sheet1!B16:C250,2,0)</f>
         <v>287375</v>
       </c>
+      <c r="D16" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A16, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/28/20</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A16, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/03/20</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="str">
@@ -4232,6 +6537,14 @@
         <f aca="false">VLOOKUP(A17, Sheet1!B17:C251,2,0)</f>
         <v>9449323</v>
       </c>
+      <c r="D17" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A17, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A17, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="str">
@@ -4242,6 +6555,14 @@
         <f aca="false">VLOOKUP(A18, Sheet1!B18:C252,2,0)</f>
         <v>11589623</v>
       </c>
+      <c r="D18" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A18, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/18/20</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A18, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/04/20</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="str">
@@ -4252,6 +6573,14 @@
         <f aca="false">VLOOKUP(A19, Sheet1!B19:C253,2,0)</f>
         <v>397628</v>
       </c>
+      <c r="D19" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A19, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A19, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="str">
@@ -4262,6 +6591,14 @@
         <f aca="false">VLOOKUP(A20, Sheet1!B20:C254,2,0)</f>
         <v>12123200</v>
       </c>
+      <c r="D20" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A20, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A20, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="str">
@@ -4272,6 +6609,14 @@
         <f aca="false">VLOOKUP(A21, Sheet1!B21:C255,2,0)</f>
         <v>771608</v>
       </c>
+      <c r="D21" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A21, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>08/11/20</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A21, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>12/30/99</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="str">
@@ -4282,6 +6627,14 @@
         <f aca="false">VLOOKUP(A22, Sheet1!B22:C256,2,0)</f>
         <v>11673021</v>
       </c>
+      <c r="D22" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A22, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/22/20</v>
+      </c>
+      <c r="E22" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A22, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>07/31/20</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="str">
@@ -4292,6 +6645,14 @@
         <f aca="false">VLOOKUP(A23, Sheet1!A23:C257,3,0)</f>
         <v>3280819</v>
       </c>
+      <c r="D23" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A23, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E23" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A23, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="str">
@@ -4302,6 +6663,14 @@
         <f aca="false">VLOOKUP(A24, Sheet1!B24:C258,2,0)</f>
         <v>2351627</v>
       </c>
+      <c r="D24" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A24, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>04/02/20</v>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A24, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/30/20</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="str">
@@ -4312,6 +6681,14 @@
         <f aca="false">VLOOKUP(A25, Sheet1!B25:C259,2,0)</f>
         <v>212559417</v>
       </c>
+      <c r="D25" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A25, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/17/20</v>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A25, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/07/20</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="str">
@@ -4322,6 +6699,14 @@
         <f aca="false">VLOOKUP(A26, Sheet1!B26:C260,2,0)</f>
         <v>437479</v>
       </c>
+      <c r="D26" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A26, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E26" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A26, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="str">
@@ -4332,6 +6717,14 @@
         <f aca="false">VLOOKUP(A27, Sheet1!B27:C261,2,0)</f>
         <v>6948445</v>
       </c>
+      <c r="D27" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A27, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A27, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="str">
@@ -4342,6 +6735,14 @@
         <f aca="false">VLOOKUP(A28, Sheet1!B28:C262,2,0)</f>
         <v>20903273</v>
       </c>
+      <c r="D28" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A28, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A28, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="str">
@@ -4352,6 +6753,14 @@
         <f aca="false">VLOOKUP(A29, Sheet1!A29:C263,3,0)</f>
         <v>54409800</v>
       </c>
+      <c r="D29" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A29, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E29" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A29, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="str">
@@ -4362,6 +6771,14 @@
         <f aca="false">VLOOKUP(A30, Sheet1!B30:C264,2,0)</f>
         <v>11890784</v>
       </c>
+      <c r="D30" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A30, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E30" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A30, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="str">
@@ -4372,6 +6789,14 @@
         <f aca="false">VLOOKUP(A31, Sheet1!B31:C265,2,0)</f>
         <v>555987</v>
       </c>
+      <c r="D31" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A31, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A31, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="str">
@@ -4382,6 +6807,14 @@
         <f aca="false">VLOOKUP(A32, Sheet1!B32:C266,2,0)</f>
         <v>16718965</v>
       </c>
+      <c r="D32" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A32, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E32" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A32, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="str">
@@ -4392,6 +6825,14 @@
         <f aca="false">VLOOKUP(A33, Sheet1!B33:C267,2,0)</f>
         <v>26545863</v>
       </c>
+      <c r="D33" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A33, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E33" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A33, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="str">
@@ -4402,6 +6843,14 @@
         <f aca="false">VLOOKUP(A34, Sheet1!B34:C268,2,0)</f>
         <v>37742154</v>
       </c>
+      <c r="D34" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A34, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E34" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A34, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="str">
@@ -4412,6 +6861,14 @@
         <f aca="false">VLOOKUP(A35, Sheet1!B35:C269,2,0)</f>
         <v>4829767</v>
       </c>
+      <c r="D35" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A35, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E35" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A35, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="str">
@@ -4422,6 +6879,14 @@
         <f aca="false">VLOOKUP(A36, Sheet1!B36:C270,2,0)</f>
         <v>16425864</v>
       </c>
+      <c r="D36" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A36, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E36" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A36, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="str">
@@ -4432,6 +6897,14 @@
         <f aca="false">VLOOKUP(A37, Sheet1!B37:C271,2,0)</f>
         <v>19116201</v>
       </c>
+      <c r="D37" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A37, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E37" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A37, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="str">
@@ -4442,6 +6915,14 @@
         <f aca="false">VLOOKUP(A38, Sheet1!B38:C272,2,0)</f>
         <v>1439323776</v>
       </c>
+      <c r="D38" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A38, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>01/23/20</v>
+      </c>
+      <c r="E38" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A38, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>12/30/99</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="str">
@@ -4452,6 +6933,14 @@
         <f aca="false">VLOOKUP(A39, Sheet1!B39:C273,2,0)</f>
         <v>50882891</v>
       </c>
+      <c r="D39" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A39, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/25/20</v>
+      </c>
+      <c r="E39" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A39, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>06/30/20</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="str">
@@ -4462,6 +6951,14 @@
         <f aca="false">VLOOKUP(A40, Sheet1!B40:C274,2,0)</f>
         <v>869601</v>
       </c>
+      <c r="D40" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A40, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E40" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A40, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="str">
@@ -4472,6 +6969,14 @@
         <f aca="false">VLOOKUP(A41, Sheet1!A41:C275,3,0)</f>
         <v>89561403</v>
       </c>
+      <c r="D41" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A41, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/31/20</v>
+      </c>
+      <c r="E41" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A41, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/20/20</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="str">
@@ -4482,6 +6987,14 @@
         <f aca="false">VLOOKUP(A42, Sheet1!B42:C276,2,0)</f>
         <v>5094118</v>
       </c>
+      <c r="D42" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A42, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E42" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A42, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="str">
@@ -4492,6 +7005,14 @@
         <f aca="false">VLOOKUP(A43, Sheet1!A43:C277,3,0)</f>
         <v>26378274</v>
       </c>
+      <c r="D43" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A43, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E43" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A43, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="str">
@@ -4502,6 +7023,14 @@
         <f aca="false">VLOOKUP(A44, Sheet1!B44:C278,2,0)</f>
         <v>4105267</v>
       </c>
+      <c r="D44" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A44, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/18/20</v>
+      </c>
+      <c r="E44" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A44, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/19/20</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="str">
@@ -4512,6 +7041,14 @@
         <f aca="false">VLOOKUP(A45, Sheet1!B45:C279,2,0)</f>
         <v>11326616</v>
       </c>
+      <c r="D45" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A45, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E45" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A45, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="str">
@@ -4522,6 +7059,14 @@
         <f aca="false">VLOOKUP(A46, Sheet1!B46:C280,2,0)</f>
         <v>1207359</v>
       </c>
+      <c r="D46" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A46, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E46" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A46, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="str">
@@ -4532,6 +7077,14 @@
         <f aca="false">VLOOKUP(A47, Sheet1!A47:C281,3,0)</f>
         <v>10708981</v>
       </c>
+      <c r="D47" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A47, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E47" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A47, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="str">
@@ -4542,6 +7095,14 @@
         <f aca="false">VLOOKUP(A48, Sheet1!B48:C282,2,0)</f>
         <v>5792202</v>
       </c>
+      <c r="D48" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A48, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E48" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A48, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="str">
@@ -4552,6 +7113,14 @@
         <f aca="false">VLOOKUP(A49, Sheet1!B49:C283,2,0)</f>
         <v>988000</v>
       </c>
+      <c r="D49" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A49, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E49" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A49, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="str">
@@ -4562,6 +7131,14 @@
         <f aca="false">VLOOKUP(A50, Sheet1!B50:C284,2,0)</f>
         <v>71986</v>
       </c>
+      <c r="D50" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A50, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E50" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A50, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="str">
@@ -4572,6 +7149,14 @@
         <f aca="false">VLOOKUP(A51, Sheet1!B51:C285,2,0)</f>
         <v>10847910</v>
       </c>
+      <c r="D51" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A51, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E51" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A51, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="str">
@@ -4582,6 +7167,14 @@
         <f aca="false">VLOOKUP(A52, Sheet1!B52:C286,2,0)</f>
         <v>17643054</v>
       </c>
+      <c r="D52" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A52, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/16/20</v>
+      </c>
+      <c r="E52" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A52, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>03/31/20</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="str">
@@ -4592,6 +7185,14 @@
         <f aca="false">VLOOKUP(A53, Sheet1!B53:C287,2,0)</f>
         <v>102334404</v>
       </c>
+      <c r="D53" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A53, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E53" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A53, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="str">
@@ -4602,6 +7203,14 @@
         <f aca="false">VLOOKUP(A54, Sheet1!B54:C288,2,0)</f>
         <v>6486205</v>
       </c>
+      <c r="D54" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A54, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/12/20</v>
+      </c>
+      <c r="E54" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A54, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/02/20</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="str">
@@ -4612,6 +7221,14 @@
         <f aca="false">VLOOKUP(A55, Sheet1!B55:C289,2,0)</f>
         <v>1402985</v>
       </c>
+      <c r="D55" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A55, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E55" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A55, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="str">
@@ -4622,6 +7239,14 @@
         <f aca="false">VLOOKUP(A56, Sheet1!B56:C290,2,0)</f>
         <v>3546421</v>
       </c>
+      <c r="D56" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A56, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>04/02/20</v>
+      </c>
+      <c r="E56" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A56, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/23/20</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="str">
@@ -4632,6 +7257,14 @@
         <f aca="false">VLOOKUP(A57, Sheet1!B57:C291,2,0)</f>
         <v>1326535</v>
       </c>
+      <c r="D57" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A57, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E57" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A57, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="str">
@@ -4642,6 +7275,14 @@
         <f aca="false">VLOOKUP(A58, Sheet1!B58:C292,2,0)</f>
         <v>1160164</v>
       </c>
+      <c r="D58" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A58, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E58" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A58, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="str">
@@ -4652,6 +7293,14 @@
         <f aca="false">VLOOKUP(A59, Sheet1!B59:C293,2,0)</f>
         <v>114963588</v>
       </c>
+      <c r="D59" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A59, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A59, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="str">
@@ -4662,6 +7311,14 @@
         <f aca="false">VLOOKUP(A60, Sheet1!B60:C294,2,0)</f>
         <v>5540720</v>
       </c>
+      <c r="D60" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A60, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E60" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A60, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="str">
@@ -4672,6 +7329,14 @@
         <f aca="false">VLOOKUP(A61, Sheet1!B60:C294,2,0)</f>
         <v>896445</v>
       </c>
+      <c r="D61" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A61, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/20/20</v>
+      </c>
+      <c r="E61" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A61, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/07/20</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="str">
@@ -4682,6 +7347,14 @@
         <f aca="false">VLOOKUP(A62, Sheet1!B61:C295,2,0)</f>
         <v>65273511</v>
       </c>
+      <c r="D62" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A62, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/17/20</v>
+      </c>
+      <c r="E62" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A62, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/11/20</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="str">
@@ -4692,6 +7365,14 @@
         <f aca="false">VLOOKUP(A63, Sheet1!B62:C296,2,0)</f>
         <v>2225734</v>
       </c>
+      <c r="D63" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A63, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E63" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A63, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="str">
@@ -4702,6 +7383,14 @@
         <f aca="false">VLOOKUP(A64, Sheet1!B63:C297,2,0)</f>
         <v>2416668</v>
       </c>
+      <c r="D64" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A64, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E64" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A64, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="str">
@@ -4712,6 +7401,14 @@
         <f aca="false">VLOOKUP(A65, Sheet1!B64:C298,2,0)</f>
         <v>3989167</v>
       </c>
+      <c r="D65" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A65, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/31/20</v>
+      </c>
+      <c r="E65" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A65, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/21/20</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="str">
@@ -4722,6 +7419,14 @@
         <f aca="false">VLOOKUP(A66, Sheet1!B65:C299,2,0)</f>
         <v>83783942</v>
       </c>
+      <c r="D66" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A66, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E66" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A66, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/20/20</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="str">
@@ -4732,6 +7437,14 @@
         <f aca="false">VLOOKUP(A67, Sheet1!B66:C300,2,0)</f>
         <v>31072940</v>
       </c>
+      <c r="D67" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A67, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/30/20</v>
+      </c>
+      <c r="E67" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A67, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/12/20</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="str">
@@ -4742,6 +7455,14 @@
         <f aca="false">VLOOKUP(A68, Sheet1!B67:C301,2,0)</f>
         <v>10423054</v>
       </c>
+      <c r="D68" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A68, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E68" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A68, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/04/20</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="str">
@@ -4752,6 +7473,14 @@
         <f aca="false">VLOOKUP(A69, Sheet1!B68:C302,2,0)</f>
         <v>112523</v>
       </c>
+      <c r="D69" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A69, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E69" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A69, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="str">
@@ -4762,6 +7491,14 @@
         <f aca="false">VLOOKUP(A70, Sheet1!B69:C303,2,0)</f>
         <v>17915568</v>
       </c>
+      <c r="D70" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A70, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E70" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A70, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="str">
@@ -4772,6 +7509,14 @@
         <f aca="false">VLOOKUP(A71, Sheet1!B70:C304,2,0)</f>
         <v>13132795</v>
       </c>
+      <c r="D71" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A71, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E71" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A71, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="str">
@@ -4782,6 +7527,14 @@
         <f aca="false">VLOOKUP(A72, Sheet1!B71:C305,2,0)</f>
         <v>1968001</v>
       </c>
+      <c r="D72" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A72, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E72" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A72, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="str">
@@ -4792,6 +7545,14 @@
         <f aca="false">VLOOKUP(A73, Sheet1!B72:C306,2,0)</f>
         <v>786552</v>
       </c>
+      <c r="D73" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A73, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E73" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A73, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="str">
@@ -4802,6 +7563,14 @@
         <f aca="false">VLOOKUP(A74, Sheet1!B73:C307,2,0)</f>
         <v>11402528</v>
       </c>
+      <c r="D74" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A74, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E74" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A74, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="str">
@@ -4812,6 +7581,14 @@
         <f aca="false">VLOOKUP(A75, Sheet1!B74:C308,2,0)</f>
         <v>801</v>
       </c>
+      <c r="D75" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A75, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E75" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A75, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="str">
@@ -4822,6 +7599,14 @@
         <f aca="false">VLOOKUP(A76, Sheet1!B75:C309,2,0)</f>
         <v>9904607</v>
       </c>
+      <c r="D76" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A76, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/20/20</v>
+      </c>
+      <c r="E76" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A76, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/17/20</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="str">
@@ -4832,6 +7617,14 @@
         <f aca="false">VLOOKUP(A77, Sheet1!B76:C310,2,0)</f>
         <v>9660351</v>
       </c>
+      <c r="D77" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A77, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/28/20</v>
+      </c>
+      <c r="E77" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A77, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/10/20</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="str">
@@ -4842,6 +7635,14 @@
         <f aca="false">VLOOKUP(A78, Sheet1!B77:C311,2,0)</f>
         <v>341243</v>
       </c>
+      <c r="D78" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A78, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E78" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A78, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="str">
@@ -4852,6 +7653,14 @@
         <f aca="false">VLOOKUP(A79, Sheet1!B78:C312,2,0)</f>
         <v>1380004385</v>
       </c>
+      <c r="D79" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A79, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/25/20</v>
+      </c>
+      <c r="E79" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A79, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>06/30/20</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="str">
@@ -4862,6 +7671,14 @@
         <f aca="false">VLOOKUP(A80, Sheet1!B79:C313,2,0)</f>
         <v>273523615</v>
       </c>
+      <c r="D80" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A80, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E80" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A80, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="str">
@@ -4872,6 +7689,14 @@
         <f aca="false">VLOOKUP(A81, Sheet1!B80:C314,2,0)</f>
         <v>83992949</v>
       </c>
+      <c r="D81" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A81, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/14/20</v>
+      </c>
+      <c r="E81" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A81, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/20/20</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="str">
@@ -4882,6 +7707,14 @@
         <f aca="false">VLOOKUP(A82, Sheet1!B81:C315,2,0)</f>
         <v>40222493</v>
       </c>
+      <c r="D82" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A82, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/22/20</v>
+      </c>
+      <c r="E82" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A82, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/11/20</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="str">
@@ -4892,6 +7725,14 @@
         <f aca="false">VLOOKUP(A83, Sheet1!B82:C316,2,0)</f>
         <v>4937786</v>
       </c>
+      <c r="D83" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A83, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/12/20</v>
+      </c>
+      <c r="E83" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A83, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/18/20</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="str">
@@ -4902,6 +7743,14 @@
         <f aca="false">VLOOKUP(A84, Sheet1!B83:C317,2,0)</f>
         <v>8655535</v>
       </c>
+      <c r="D84" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A84, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>04/02/20</v>
+      </c>
+      <c r="E84" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A84, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>12/30/99</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="str">
@@ -4912,6 +7761,14 @@
         <f aca="false">VLOOKUP(A85, Sheet1!B84:C318,2,0)</f>
         <v>60461826</v>
       </c>
+      <c r="D85" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A85, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/09/20</v>
+      </c>
+      <c r="E85" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A85, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/18/20</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="str">
@@ -4922,6 +7779,14 @@
         <f aca="false">VLOOKUP(A86, Sheet1!B85:C319,2,0)</f>
         <v>2961167</v>
       </c>
+      <c r="D86" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A86, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>04/15/20</v>
+      </c>
+      <c r="E86" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A86, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/22/20</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="str">
@@ -4932,6 +7797,14 @@
         <f aca="false">VLOOKUP(A87, Sheet1!B86:C320,2,0)</f>
         <v>126476461</v>
       </c>
+      <c r="D87" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A87, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E87" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A87, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="str">
@@ -4942,6 +7815,14 @@
         <f aca="false">VLOOKUP(A88, Sheet1!B87:C321,2,0)</f>
         <v>10203134</v>
       </c>
+      <c r="D88" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A88, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/18/20</v>
+      </c>
+      <c r="E88" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A88, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/30/20</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="str">
@@ -4952,6 +7833,14 @@
         <f aca="false">VLOOKUP(A89, Sheet1!B88:C322,2,0)</f>
         <v>18776707</v>
       </c>
+      <c r="D89" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A89, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E89" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A89, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="str">
@@ -4962,6 +7851,14 @@
         <f aca="false">VLOOKUP(A90, Sheet1!B89:C323,2,0)</f>
         <v>53771296</v>
       </c>
+      <c r="D90" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A90, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E90" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A90, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="str">
@@ -4972,6 +7869,14 @@
         <f aca="false">VLOOKUP(A91, Sheet1!B90:C324,2,0)</f>
         <v>51269185</v>
       </c>
+      <c r="D91" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A91, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E91" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A91, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="str">
@@ -4982,7 +7887,15 @@
         <v>1845000</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>250</v>
+        <v>347</v>
+      </c>
+      <c r="D92" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A92, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/14/20</v>
+      </c>
+      <c r="E92" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A92, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/04/20</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4994,6 +7907,14 @@
         <f aca="false">VLOOKUP(A93, Sheet1!B92:C326,2,0)</f>
         <v>4270571</v>
       </c>
+      <c r="D93" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A93, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/14/20</v>
+      </c>
+      <c r="E93" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A93, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>03/29/20</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="str">
@@ -5004,6 +7925,14 @@
         <f aca="false">VLOOKUP(A94, Sheet1!B93:C327,2,0)</f>
         <v>6524195</v>
       </c>
+      <c r="D94" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A94, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E94" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A94, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="str">
@@ -5014,6 +7943,14 @@
         <f aca="false">VLOOKUP(A95, Sheet1!B94:C328,2,0)</f>
         <v>7275560</v>
       </c>
+      <c r="D95" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A95, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E95" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A95, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="str">
@@ -5024,6 +7961,14 @@
         <f aca="false">VLOOKUP(A96, Sheet1!B95:C329,2,0)</f>
         <v>1886198</v>
       </c>
+      <c r="D96" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A96, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E96" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A96, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="str">
@@ -5034,6 +7979,14 @@
         <f aca="false">VLOOKUP(A97, Sheet1!B96:C330,2,0)</f>
         <v>6825445</v>
       </c>
+      <c r="D97" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A97, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/15/20</v>
+      </c>
+      <c r="E97" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A97, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>03/28/20</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="str">
@@ -5044,6 +7997,14 @@
         <f aca="false">VLOOKUP(A98, Sheet1!B97:C331,2,0)</f>
         <v>2142249</v>
       </c>
+      <c r="D98" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A98, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E98" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A98, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="str">
@@ -5054,6 +8015,14 @@
         <f aca="false">VLOOKUP(A99, Sheet1!B98:C332,2,0)</f>
         <v>5057681</v>
       </c>
+      <c r="D99" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A99, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E99" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A99, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/11/20</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="str">
@@ -5064,6 +8033,14 @@
         <f aca="false">VLOOKUP(A100, Sheet1!B99:C333,2,0)</f>
         <v>6871292</v>
       </c>
+      <c r="D100" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A100, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/22/20</v>
+      </c>
+      <c r="E100" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A100, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>12/30/99</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="str">
@@ -5074,6 +8051,14 @@
         <f aca="false">VLOOKUP(A101, Sheet1!B100:C334,2,0)</f>
         <v>38128</v>
       </c>
+      <c r="D101" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A101, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E101" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A101, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="str">
@@ -5084,6 +8069,14 @@
         <f aca="false">VLOOKUP(A102, Sheet1!B101:C335,2,0)</f>
         <v>2722289</v>
       </c>
+      <c r="D102" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A102, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/16/20</v>
+      </c>
+      <c r="E102" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A102, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>06/18/20</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="str">
@@ -5094,6 +8087,14 @@
         <f aca="false">VLOOKUP(A103, Sheet1!B102:C336,2,0)</f>
         <v>625978</v>
       </c>
+      <c r="D103" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A103, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E103" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A103, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="str">
@@ -5104,6 +8105,14 @@
         <f aca="false">VLOOKUP(A104, Sheet1!B103:C337,2,0)</f>
         <v>27691018</v>
       </c>
+      <c r="D104" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A104, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E104" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A104, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/20/20</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="str">
@@ -5114,6 +8123,14 @@
         <f aca="false">VLOOKUP(A105, Sheet1!B104:C338,2,0)</f>
         <v>19129952</v>
       </c>
+      <c r="D105" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A105, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E105" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A105, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="str">
@@ -5124,6 +8141,14 @@
         <f aca="false">VLOOKUP(A106, Sheet1!B105:C339,2,0)</f>
         <v>32365999</v>
       </c>
+      <c r="D106" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A106, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/18/20</v>
+      </c>
+      <c r="E106" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A106, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>06/09/20</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="str">
@@ -5134,6 +8159,14 @@
         <f aca="false">VLOOKUP(A107, Sheet1!B106:C340,2,0)</f>
         <v>540544</v>
       </c>
+      <c r="D107" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A107, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E107" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A107, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="str">
@@ -5144,6 +8177,14 @@
         <f aca="false">VLOOKUP(A108, Sheet1!B107:C341,2,0)</f>
         <v>20250833</v>
       </c>
+      <c r="D108" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A108, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E108" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A108, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="str">
@@ -5154,6 +8195,14 @@
         <f aca="false">VLOOKUP(A109, Sheet1!B108:C342,2,0)</f>
         <v>441543</v>
       </c>
+      <c r="D109" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A109, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E109" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A109, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="str">
@@ -5164,6 +8213,14 @@
         <f aca="false">VLOOKUP(A110, Sheet1!B109:C343,2,0)</f>
         <v>4649658</v>
       </c>
+      <c r="D110" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A110, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E110" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A110, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="str">
@@ -5174,6 +8231,14 @@
         <f aca="false">VLOOKUP(A111, Sheet1!B110:C344,2,0)</f>
         <v>1271768</v>
       </c>
+      <c r="D111" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A111, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E111" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A111, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="str">
@@ -5184,6 +8249,14 @@
         <f aca="false">VLOOKUP(A112, Sheet1!B111:C345,2,0)</f>
         <v>128932753</v>
       </c>
+      <c r="D112" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A112, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E112" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A112, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>06/01/20</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="str">
@@ -5194,6 +8267,14 @@
         <f aca="false">VLOOKUP(A113, Sheet1!B112:C346,2,0)</f>
         <v>4033963</v>
       </c>
+      <c r="D113" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A113, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E113" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A113, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="str">
@@ -5204,6 +8285,14 @@
         <f aca="false">VLOOKUP(A114, Sheet1!B113:C347,2,0)</f>
         <v>39242</v>
       </c>
+      <c r="D114" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A114, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E114" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A114, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="str">
@@ -5214,6 +8303,14 @@
         <f aca="false">VLOOKUP(A115, Sheet1!B114:C348,2,0)</f>
         <v>3278290</v>
       </c>
+      <c r="D115" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A115, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/10/20</v>
+      </c>
+      <c r="E115" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A115, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>03/16/20</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="str">
@@ -5224,6 +8321,14 @@
         <f aca="false">VLOOKUP(A116, Sheet1!B115:C349,2,0)</f>
         <v>628066</v>
       </c>
+      <c r="D116" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A116, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/24/20</v>
+      </c>
+      <c r="E116" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A116, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>12/30/99</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="str">
@@ -5234,6 +8339,14 @@
         <f aca="false">VLOOKUP(A117, Sheet1!B116:C350,2,0)</f>
         <v>36910560</v>
       </c>
+      <c r="D117" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A117, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/19/20</v>
+      </c>
+      <c r="E117" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A117, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>06/10/20</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="str">
@@ -5244,6 +8357,14 @@
         <f aca="false">VLOOKUP(A118, Sheet1!B117:C351,2,0)</f>
         <v>31255435</v>
       </c>
+      <c r="D118" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A118, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E118" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A118, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="str">
@@ -5254,6 +8375,14 @@
         <f aca="false">VLOOKUP(A119, Sheet1!B118:C352,2,0)</f>
         <v>2540905</v>
       </c>
+      <c r="D119" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A119, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/27/20</v>
+      </c>
+      <c r="E119" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A119, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/04/20</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="str">
@@ -5264,6 +8393,14 @@
         <f aca="false">VLOOKUP(A120, Sheet1!B119:C353,2,0)</f>
         <v>29136808</v>
       </c>
+      <c r="D120" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A120, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/24/20</v>
+      </c>
+      <c r="E120" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A120, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>06/14/20</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="str">
@@ -5274,6 +8411,14 @@
         <f aca="false">VLOOKUP(A121, Sheet1!B120:C354,2,0)</f>
         <v>17134872</v>
       </c>
+      <c r="D121" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A121, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E121" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A121, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="str">
@@ -5284,6 +8429,14 @@
         <f aca="false">VLOOKUP(A122, Sheet1!B121:C355,2,0)</f>
         <v>4822233</v>
       </c>
+      <c r="D122" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A122, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/26/20</v>
+      </c>
+      <c r="E122" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A122, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/14/20</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="str">
@@ -5294,6 +8447,14 @@
         <f aca="false">VLOOKUP(A123, Sheet1!B122:C356,2,0)</f>
         <v>6624554</v>
       </c>
+      <c r="D123" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A123, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E123" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A123, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="str">
@@ -5304,6 +8465,14 @@
         <f aca="false">VLOOKUP(A124, Sheet1!B123:C357,2,0)</f>
         <v>24206644</v>
       </c>
+      <c r="D124" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A124, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E124" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A124, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="str">
@@ -5314,6 +8483,14 @@
         <f aca="false">VLOOKUP(A125, Sheet1!B124:C358,2,0)</f>
         <v>206139589</v>
       </c>
+      <c r="D125" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A125, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/30/20</v>
+      </c>
+      <c r="E125" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A125, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/12/20</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="str">
@@ -5324,6 +8501,14 @@
         <f aca="false">VLOOKUP(A126, Sheet1!B125:C359,2,0)</f>
         <v>2083374</v>
       </c>
+      <c r="D126" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A126, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E126" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A126, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="str">
@@ -5334,6 +8519,14 @@
         <f aca="false">VLOOKUP(A127, Sheet1!B126:C360,2,0)</f>
         <v>5421241</v>
       </c>
+      <c r="D127" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A127, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E127" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A127, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="str">
@@ -5344,6 +8537,14 @@
         <f aca="false">VLOOKUP(A128, Sheet1!B127:C361,2,0)</f>
         <v>5106626</v>
       </c>
+      <c r="D128" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A128, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>04/10/20</v>
+      </c>
+      <c r="E128" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A128, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/29/20</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="str">
@@ -5354,6 +8555,14 @@
         <f aca="false">VLOOKUP(A129, Sheet1!B128:C362,2,0)</f>
         <v>220892340</v>
       </c>
+      <c r="D129" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A129, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/24/20</v>
+      </c>
+      <c r="E129" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A129, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/09/20</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="str">
@@ -5364,6 +8573,14 @@
         <f aca="false">VLOOKUP(A130, Sheet1!B129:C363,2,0)</f>
         <v>4314767</v>
       </c>
+      <c r="D130" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A130, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/25/20</v>
+      </c>
+      <c r="E130" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A130, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>12/30/99</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="str">
@@ -5374,6 +8591,14 @@
         <f aca="false">VLOOKUP(A131, Sheet1!B130:C364,2,0)</f>
         <v>8947024</v>
       </c>
+      <c r="D131" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A131, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E131" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A131, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="str">
@@ -5384,6 +8609,14 @@
         <f aca="false">VLOOKUP(A132, Sheet1!B131:C365,2,0)</f>
         <v>7132538</v>
       </c>
+      <c r="D132" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A132, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/20/20</v>
+      </c>
+      <c r="E132" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A132, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/03/20</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="str">
@@ -5394,6 +8627,14 @@
         <f aca="false">VLOOKUP(A133, Sheet1!B132:C366,2,0)</f>
         <v>32971854</v>
       </c>
+      <c r="D133" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A133, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/16/20</v>
+      </c>
+      <c r="E133" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A133, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>06/30/20</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="str">
@@ -5404,6 +8645,14 @@
         <f aca="false">VLOOKUP(A134, Sheet1!B133:C367,2,0)</f>
         <v>109581078</v>
       </c>
+      <c r="D134" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A134, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/27/20</v>
+      </c>
+      <c r="E134" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A134, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/15/20</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="str">
@@ -5414,6 +8663,14 @@
         <f aca="false">VLOOKUP(A135, Sheet1!B134:C368,2,0)</f>
         <v>37846611</v>
       </c>
+      <c r="D135" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A135, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/13/20</v>
+      </c>
+      <c r="E135" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A135, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/11/20</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="str">
@@ -5424,6 +8681,14 @@
         <f aca="false">VLOOKUP(A136, Sheet1!B135:C369,2,0)</f>
         <v>10196709</v>
       </c>
+      <c r="D136" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A136, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/19/20</v>
+      </c>
+      <c r="E136" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A136, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/02/20</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="str">
@@ -5434,6 +8699,14 @@
         <f aca="false">VLOOKUP(A137, Sheet1!B136:C370,2,0)</f>
         <v>2881053</v>
       </c>
+      <c r="D137" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A137, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/11/20</v>
+      </c>
+      <c r="E137" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A137, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>12/30/99</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="str">
@@ -5444,6 +8717,14 @@
         <f aca="false">VLOOKUP(A138, Sheet1!B137:C371,2,0)</f>
         <v>19237691</v>
       </c>
+      <c r="D138" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A138, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/25/20</v>
+      </c>
+      <c r="E138" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A138, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/12/20</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="str">
@@ -5454,6 +8735,14 @@
         <f aca="false">VLOOKUP(A139, Sheet1!B138:C372,2,0)</f>
         <v>145934462</v>
       </c>
+      <c r="D139" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A139, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/30/20</v>
+      </c>
+      <c r="E139" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A139, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/12/20</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="str">
@@ -5464,6 +8753,14 @@
         <f aca="false">VLOOKUP(A140, Sheet1!B139:C373,2,0)</f>
         <v>12952218</v>
       </c>
+      <c r="D140" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A140, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/21/20</v>
+      </c>
+      <c r="E140" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A140, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/19/20</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="str">
@@ -5474,6 +8771,14 @@
         <f aca="false">VLOOKUP(A141, Sheet1!A140:C374,3,0)</f>
         <v>53199</v>
       </c>
+      <c r="D141" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A141, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E141" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A141, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="str">
@@ -5484,6 +8789,14 @@
         <f aca="false">VLOOKUP(A142, Sheet1!B141:C375,2,0)</f>
         <v>183627</v>
       </c>
+      <c r="D142" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A142, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E142" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A142, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="str">
@@ -5494,6 +8807,14 @@
         <f aca="false">VLOOKUP(A143, Sheet1!A142:C376,3,0)</f>
         <v>110940</v>
       </c>
+      <c r="D143" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A143, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E143" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A143, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="str">
@@ -5504,6 +8825,14 @@
         <f aca="false">VLOOKUP(A144, Sheet1!B143:C377,2,0)</f>
         <v>33931</v>
       </c>
+      <c r="D144" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A144, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E144" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A144, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="str">
@@ -5514,6 +8843,14 @@
         <f aca="false">VLOOKUP(A145, Sheet1!A144:C378,3,0)</f>
         <v>219159</v>
       </c>
+      <c r="D145" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A145, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E145" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A145, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="str">
@@ -5524,6 +8861,14 @@
         <f aca="false">VLOOKUP(A146, Sheet1!B145:C379,2,0)</f>
         <v>34813871</v>
       </c>
+      <c r="D146" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A146, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E146" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A146, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="str">
@@ -5534,6 +8879,14 @@
         <f aca="false">VLOOKUP(A147, Sheet1!B146:C380,2,0)</f>
         <v>16743927</v>
       </c>
+      <c r="D147" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A147, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E147" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A147, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="str">
@@ -5544,6 +8897,14 @@
         <f aca="false">VLOOKUP(A148, Sheet1!B147:C381,2,0)</f>
         <v>8737371</v>
       </c>
+      <c r="D148" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A148, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/15/20</v>
+      </c>
+      <c r="E148" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A148, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/21/20</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="str">
@@ -5554,6 +8915,14 @@
         <f aca="false">VLOOKUP(A149, Sheet1!B148:C382,2,0)</f>
         <v>98347</v>
       </c>
+      <c r="D149" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A149, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E149" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A149, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="str">
@@ -5564,6 +8933,14 @@
         <f aca="false">VLOOKUP(A150, Sheet1!B149:C383,2,0)</f>
         <v>7976983</v>
       </c>
+      <c r="D150" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A150, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E150" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A150, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="str">
@@ -5574,6 +8951,14 @@
         <f aca="false">VLOOKUP(A151, Sheet1!B150:C384,2,0)</f>
         <v>5850342</v>
       </c>
+      <c r="D151" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A151, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>04/07/20</v>
+      </c>
+      <c r="E151" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A151, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>06/01/20</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="str">
@@ -5584,6 +8969,14 @@
         <f aca="false">VLOOKUP(A152, Sheet1!B151:C385,2,0)</f>
         <v>5459642</v>
       </c>
+      <c r="D152" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A152, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E152" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A152, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="str">
@@ -5594,6 +8987,14 @@
         <f aca="false">VLOOKUP(A153, Sheet1!B152:C386,2,0)</f>
         <v>2078938</v>
       </c>
+      <c r="D153" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A153, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E153" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A153, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="str">
@@ -5604,6 +9005,14 @@
         <f aca="false">VLOOKUP(A154, Sheet1!B153:C387,2,0)</f>
         <v>15893222</v>
       </c>
+      <c r="D154" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A154, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E154" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A154, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="str">
@@ -5614,6 +9023,14 @@
         <f aca="false">VLOOKUP(A155, Sheet1!B154:C388,2,0)</f>
         <v>59308690</v>
       </c>
+      <c r="D155" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A155, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/26/20</v>
+      </c>
+      <c r="E155" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A155, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/30/20</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="str">
@@ -5624,6 +9041,14 @@
         <f aca="false">VLOOKUP(A156, Sheet1!B155:C389,2,0)</f>
         <v>11193725</v>
       </c>
+      <c r="D156" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A156, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E156" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A156, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="str">
@@ -5634,6 +9059,14 @@
         <f aca="false">VLOOKUP(A157, Sheet1!B156:C390,2,0)</f>
         <v>46754778</v>
       </c>
+      <c r="D157" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A157, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/14/20</v>
+      </c>
+      <c r="E157" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A157, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/09/20</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="str">
@@ -5644,6 +9077,14 @@
         <f aca="false">VLOOKUP(A158, Sheet1!B157:C391,2,0)</f>
         <v>21413249</v>
       </c>
+      <c r="D158" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A158, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/18/20</v>
+      </c>
+      <c r="E158" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A158, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>06/21/20</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="str">
@@ -5654,6 +9095,14 @@
         <f aca="false">VLOOKUP(A159, Sheet1!B158:C392,2,0)</f>
         <v>43849260</v>
       </c>
+      <c r="D159" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A159, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E159" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A159, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="str">
@@ -5664,6 +9113,14 @@
         <f aca="false">VLOOKUP(A160, Sheet1!B159:C393,2,0)</f>
         <v>586632</v>
       </c>
+      <c r="D160" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A160, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E160" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A160, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="str">
@@ -5674,6 +9131,14 @@
         <f aca="false">VLOOKUP(A161, Sheet1!B160:C394,2,0)</f>
         <v>10099265</v>
       </c>
+      <c r="D161" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A161, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E161" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A161, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="str">
@@ -5684,6 +9149,14 @@
         <f aca="false">VLOOKUP(A162, Sheet1!B161:C395,2,0)</f>
         <v>8654622</v>
       </c>
+      <c r="D162" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A162, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E162" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A162, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="str">
@@ -5694,6 +9167,14 @@
         <f aca="false">VLOOKUP(A163, Sheet1!B162:C396,2,0)</f>
         <v>17500658</v>
       </c>
+      <c r="D163" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A163, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E163" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A163, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="str">
@@ -5704,6 +9185,14 @@
         <f aca="false">VLOOKUP(A164, Sheet1!B163:C397,2,0)</f>
         <v>23816775</v>
       </c>
+      <c r="D164" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A164, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E164" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A164, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="str">
@@ -5714,6 +9203,14 @@
         <f aca="false">VLOOKUP(A165, Sheet1!B164:C398,2,0)</f>
         <v>9537645</v>
       </c>
+      <c r="D165" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A165, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E165" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A165, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="str">
@@ -5724,6 +9221,14 @@
         <f aca="false">VLOOKUP(A166, Sheet1!B165:C399,2,0)</f>
         <v>59734218</v>
       </c>
+      <c r="D166" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A166, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E166" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A166, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="str">
@@ -5734,6 +9239,14 @@
         <f aca="false">VLOOKUP(A167, Sheet1!B166:C400,2,0)</f>
         <v>69799978</v>
       </c>
+      <c r="D167" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A167, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/25/20</v>
+      </c>
+      <c r="E167" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A167, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/31/20</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="str">
@@ -5744,6 +9257,14 @@
         <f aca="false">VLOOKUP(A168, Sheet1!B167:C401,2,0)</f>
         <v>1318445</v>
       </c>
+      <c r="D168" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A168, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E168" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A168, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="str">
@@ -5754,6 +9275,14 @@
         <f aca="false">VLOOKUP(A169, Sheet1!B168:C402,2,0)</f>
         <v>8278724</v>
       </c>
+      <c r="D169" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A169, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E169" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A169, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="str">
@@ -5764,6 +9293,14 @@
         <f aca="false">VLOOKUP(A170, Sheet1!B169:C403,2,0)</f>
         <v>1399488</v>
       </c>
+      <c r="D170" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A170, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E170" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A170, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="str">
@@ -5774,6 +9311,14 @@
         <f aca="false">VLOOKUP(A171, Sheet1!B170:C404,2,0)</f>
         <v>11818619</v>
       </c>
+      <c r="D171" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A171, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/22/20</v>
+      </c>
+      <c r="E171" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A171, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/19/20</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="str">
@@ -5784,6 +9329,14 @@
         <f aca="false">VLOOKUP(A172, Sheet1!B171:C405,2,0)</f>
         <v>84339067</v>
       </c>
+      <c r="D172" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A172, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>04/23/20</v>
+      </c>
+      <c r="E172" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A172, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/27/20</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="str">
@@ -5794,6 +9347,14 @@
         <f aca="false">VLOOKUP(A173, Sheet1!A172:C406,3,0)</f>
         <v>331002651</v>
       </c>
+      <c r="D173" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A173, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E173" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A173, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="str">
@@ -5804,6 +9365,14 @@
         <f aca="false">VLOOKUP(A174, Sheet1!B173:C407,2,0)</f>
         <v>45741007</v>
       </c>
+      <c r="D174" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A174, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E174" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A174, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="str">
@@ -5814,6 +9383,14 @@
         <f aca="false">VLOOKUP(A175, Sheet1!B174:C408,2,0)</f>
         <v>43733762</v>
       </c>
+      <c r="D175" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A175, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/17/20</v>
+      </c>
+      <c r="E175" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A175, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/24/20</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="str">
@@ -5824,6 +9401,14 @@
         <f aca="false">VLOOKUP(A176, Sheet1!B175:C409,2,0)</f>
         <v>9890402</v>
       </c>
+      <c r="D176" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A176, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/26/20</v>
+      </c>
+      <c r="E176" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A176, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/17/20</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="str">
@@ -5834,6 +9419,14 @@
         <f aca="false">VLOOKUP(A177, Sheet1!B176:C410,2,0)</f>
         <v>67886011</v>
       </c>
+      <c r="D177" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A177, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/23/20</v>
+      </c>
+      <c r="E177" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A177, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>12/30/99</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="str">
@@ -5844,6 +9437,14 @@
         <f aca="false">VLOOKUP(A178, Sheet1!B177:C411,2,0)</f>
         <v>3473730</v>
       </c>
+      <c r="D178" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A178, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E178" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A178, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="str">
@@ -5854,6 +9455,14 @@
         <f aca="false">VLOOKUP(A179, Sheet1!B178:C412,2,0)</f>
         <v>33469203</v>
       </c>
+      <c r="D179" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A179, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E179" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A179, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="str">
@@ -5864,6 +9473,14 @@
         <f aca="false">VLOOKUP(A180, Sheet1!B179:C413,2,0)</f>
         <v>28435940</v>
       </c>
+      <c r="D180" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A180, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/17/20</v>
+      </c>
+      <c r="E180" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A180, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/13/20</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="str">
@@ -5874,6 +9491,14 @@
         <f aca="false">VLOOKUP(A181, Sheet1!B180:C414,2,0)</f>
         <v>97338579</v>
       </c>
+      <c r="D181" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A181, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>04/01/20</v>
+      </c>
+      <c r="E181" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A181, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>04/22/20</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="str">
@@ -5884,7 +9509,15 @@
         <v>4569000</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>250</v>
+        <v>347</v>
+      </c>
+      <c r="D182" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A182, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E182" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A182, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,6 +9529,14 @@
         <f aca="false">VLOOKUP(A183, Sheet1!B182:C416,2,0)</f>
         <v>597339</v>
       </c>
+      <c r="D183" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A183, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E183" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A183, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="str">
@@ -5906,6 +9547,14 @@
         <f aca="false">VLOOKUP(A184, Sheet1!B183:C417,2,0)</f>
         <v>29825964</v>
       </c>
+      <c r="D184" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A184, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E184" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A184, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="str">
@@ -5916,6 +9565,14 @@
         <f aca="false">VLOOKUP(A185, Sheet1!B184:C418,2,0)</f>
         <v>18383955</v>
       </c>
+      <c r="D185" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A185, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="E185" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A185, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="str">
@@ -5925,6 +9582,14 @@
       <c r="B186" s="0" t="n">
         <f aca="false">VLOOKUP(A186, Sheet1!B185:C419,2,0)</f>
         <v>14862924</v>
+      </c>
+      <c r="D186" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A186, Sheet4!$A$2:$E$100,4,0),"")</f>
+        <v>03/30/20</v>
+      </c>
+      <c r="E186" s="6" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A186, Sheet4!$A$2:$E$100,5,0),"")</f>
+        <v>05/02/20</v>
       </c>
     </row>
   </sheetData>
